--- a/FIN.xlsx
+++ b/FIN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="835" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="totalgoalsv2" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,21 @@
     <sheet name="gcmatrix" sheetId="3" r:id="rId3"/>
     <sheet name="form" sheetId="4" r:id="rId4"/>
     <sheet name="tgmatrix" sheetId="5" r:id="rId5"/>
-    <sheet name="table" sheetId="6" r:id="rId6"/>
-    <sheet name="L6" sheetId="7" r:id="rId7"/>
-    <sheet name="homepoisson" sheetId="8" r:id="rId8"/>
-    <sheet name="awaypoisson" sheetId="9" r:id="rId9"/>
-    <sheet name="FIN" sheetId="10" r:id="rId10"/>
-    <sheet name="FTR" sheetId="11" r:id="rId11"/>
-    <sheet name="OVUN" sheetId="12" r:id="rId12"/>
+    <sheet name="OVUN" sheetId="6" r:id="rId6"/>
+    <sheet name="table" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
+    <sheet name="homepoisson" sheetId="9" r:id="rId9"/>
+    <sheet name="awaypoisson" sheetId="10" r:id="rId10"/>
+    <sheet name="FIN" sheetId="11" r:id="rId11"/>
+    <sheet name="FTR" sheetId="12" r:id="rId12"/>
+    <sheet name="OVUN25" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="778">
   <si>
     <t>AC.Oulu</t>
   </si>
@@ -182,6 +183,60 @@
     <t>D</t>
   </si>
   <si>
+    <t>fin_teams</t>
+  </si>
+  <si>
+    <t>fin_un05</t>
+  </si>
+  <si>
+    <t>fin_ov05</t>
+  </si>
+  <si>
+    <t>fin_un15</t>
+  </si>
+  <si>
+    <t>fin_ov15</t>
+  </si>
+  <si>
+    <t>fin_un25</t>
+  </si>
+  <si>
+    <t>fin_ov25</t>
+  </si>
+  <si>
+    <t>fin_un35</t>
+  </si>
+  <si>
+    <t>fin_ov35</t>
+  </si>
+  <si>
+    <t>fin_un45</t>
+  </si>
+  <si>
+    <t>fin_ov45</t>
+  </si>
+  <si>
+    <t>fin_un55</t>
+  </si>
+  <si>
+    <t>fin_ov55</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
@@ -200,19 +255,16 @@
     <t>fin_PTS</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-9</t>
   </si>
   <si>
     <t>16</t>
@@ -230,6 +282,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>CSForm</t>
+  </si>
+  <si>
     <t>Team against</t>
   </si>
   <si>
@@ -377,6 +432,42 @@
     <t>SJK,2 2 2 2 1,(9)</t>
   </si>
   <si>
+    <t>AC Oulu,0-2 3-1 0-2 1-2 3-1</t>
+  </si>
+  <si>
+    <t>Haka,2-0 2-1 0-3 0-3 1-2</t>
+  </si>
+  <si>
+    <t>HIFK,2-0 1-1 1-1 1-2 1-4</t>
+  </si>
+  <si>
+    <t>HJK,4-2 0-0 0-3 2-0 0-2 3-1</t>
+  </si>
+  <si>
+    <t>Honka,4-2 0-2 1-3 1-2 1-0 0-1</t>
+  </si>
+  <si>
+    <t>Ilves,0-2 0-3 1-1 3-2 2-0</t>
+  </si>
+  <si>
+    <t>Inter Turku,1-0 2-1 2-1 1-2 2-1 1-4</t>
+  </si>
+  <si>
+    <t>KTP,1-1 1-3 0-3 2-1 2-0</t>
+  </si>
+  <si>
+    <t>KuPS,1-0 0-0 2-4 2-0 3-2 1-2</t>
+  </si>
+  <si>
+    <t>Lahti,2-1 2-4 2-0 1-0 0-3</t>
+  </si>
+  <si>
+    <t>Mariehamn,0-2 3-1 2-0 0-3 0-3</t>
+  </si>
+  <si>
+    <t>SJK,1-1 1-1 0-2 0-2 0-1</t>
+  </si>
+  <si>
     <t>AC Oulu,Ilves Mariehamn SJK HIFK HJK</t>
   </si>
   <si>
@@ -416,9 +507,6 @@
     <t>fin_division</t>
   </si>
   <si>
-    <t>fin_teams</t>
-  </si>
-  <si>
     <t>fin_avg_HG</t>
   </si>
   <si>
@@ -687,12 +775,6 @@
   </si>
   <si>
     <t>fin_A</t>
-  </si>
-  <si>
-    <t>fin_ov25</t>
-  </si>
-  <si>
-    <t>fin_un25</t>
   </si>
   <si>
     <t>fin_ov25_odds</t>
@@ -2318,9 +2400,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3261,6 +3342,276 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3269,208 +3620,208 @@
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="L1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="M1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="N1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="O1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="Q1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="R1" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="U1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="W1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="X1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="Y1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="Z1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="AA1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="AB1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="AC1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AD1" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AE1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="AF1" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="AG1" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="AH1" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AI1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="AJ1" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="AK1" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AL1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="AM1" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="AN1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AO1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="AP1" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AQ1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="AR1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="AS1" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="AT1" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AU1" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AV1" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="AW1" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="AX1" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="AY1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="AZ1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="BA1" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="BB1" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="BC1" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="BD1" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="BE1" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="BF1" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="BG1" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="BH1" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="BI1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="BJ1" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="BK1" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="BL1" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="BM1" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="BN1" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="BO1" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="BP1" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="BQ1" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
@@ -3478,7 +3829,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -3658,19 +4009,19 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="BK2" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="BL2" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="BM2" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="BN2" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="BO2">
         <v>2.56</v>
@@ -3679,7 +4030,7 @@
         <v>1.65</v>
       </c>
       <c r="BQ2" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
@@ -3687,7 +4038,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3867,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="BK3" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="BL3" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="BM3" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="BN3" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="BO3">
         <v>2.69</v>
@@ -3888,7 +4239,7 @@
         <v>1.6</v>
       </c>
       <c r="BQ3" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
@@ -3896,7 +4247,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -4076,19 +4427,19 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK4" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="BL4" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="BM4" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="BN4" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="BO4">
         <v>2.83</v>
@@ -4097,7 +4448,7 @@
         <v>1.56</v>
       </c>
       <c r="BQ4" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
@@ -4105,7 +4456,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4285,19 +4636,19 @@
         <v>0</v>
       </c>
       <c r="BJ5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="BK5" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="BL5" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="BM5" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="BN5" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="BO5">
         <v>2.02</v>
@@ -4306,7 +4657,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="BQ5" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
@@ -4314,7 +4665,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -4494,19 +4845,19 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="BK6" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="BL6" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="BM6" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="BN6" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="BO6">
         <v>2.99</v>
@@ -4515,7 +4866,7 @@
         <v>1.51</v>
       </c>
       <c r="BQ6" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
@@ -4523,7 +4874,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4703,19 +5054,19 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="BK7" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="BL7" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="BM7" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="BN7" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="BO7">
         <v>1.62</v>
@@ -4724,15 +5075,15 @@
         <v>2.86</v>
       </c>
       <c r="BQ7" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -4912,19 +5263,19 @@
         <v>0</v>
       </c>
       <c r="BJ8" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="BK8" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="BL8" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="BM8" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="BN8" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="BO8">
         <v>3.27</v>
@@ -4933,15 +5284,15 @@
         <v>1.44</v>
       </c>
       <c r="BQ8" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -5121,19 +5472,19 @@
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="BK9" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="BL9" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="BM9" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="BN9" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="BO9">
         <v>1.71</v>
@@ -5142,7 +5493,7 @@
         <v>2.5</v>
       </c>
       <c r="BQ9" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
@@ -5150,7 +5501,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -5330,19 +5681,19 @@
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="BK10" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="BL10" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="BM10" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="BN10" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="BO10">
         <v>2.69</v>
@@ -5351,15 +5702,15 @@
         <v>1.6</v>
       </c>
       <c r="BQ10" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -5539,19 +5890,19 @@
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="BK11" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="BL11" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="BM11" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="BN11" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="BO11">
         <v>4.8899999999999997</v>
@@ -5560,15 +5911,15 @@
         <v>1.26</v>
       </c>
       <c r="BQ11" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5748,19 +6099,19 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK12" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="BL12" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="BM12" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="BN12" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="BO12">
         <v>3.36</v>
@@ -5769,15 +6120,15 @@
         <v>1.43</v>
       </c>
       <c r="BQ12" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -5957,19 +6308,19 @@
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK13" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="BL13" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="BM13" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="BN13" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="BO13">
         <v>3.36</v>
@@ -5978,15 +6329,15 @@
         <v>1.43</v>
       </c>
       <c r="BQ13" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -6166,19 +6517,19 @@
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK14" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="BL14" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="BM14" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="BN14" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="BO14">
         <v>1.92</v>
@@ -6187,7 +6538,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="BQ14" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
@@ -6195,7 +6546,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -6375,19 +6726,19 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK15" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="BL15" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="BM15" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="BN15" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="BO15">
         <v>1.74</v>
@@ -6396,7 +6747,7 @@
         <v>2.63</v>
       </c>
       <c r="BQ15" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
@@ -6404,7 +6755,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -6584,19 +6935,19 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK16" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="BL16" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="BM16" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="BN16" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="BO16">
         <v>1.74</v>
@@ -6605,15 +6956,15 @@
         <v>2.63</v>
       </c>
       <c r="BQ16" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -6793,19 +7144,19 @@
         <v>0</v>
       </c>
       <c r="BJ17" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK17" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="BL17" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="BM17" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="BN17" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="BO17">
         <v>1.92</v>
@@ -6814,7 +7165,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="BQ17" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
@@ -6822,7 +7173,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -7002,19 +7353,19 @@
         <v>0</v>
       </c>
       <c r="BJ18" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK18" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="BL18" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="BM18" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="BN18" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="BO18">
         <v>1.52</v>
@@ -7023,7 +7374,7 @@
         <v>5.69</v>
       </c>
       <c r="BQ18" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
@@ -7031,7 +7382,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -7211,19 +7562,19 @@
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK19" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="BL19" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="BM19" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="BN19" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="BO19">
         <v>2.39</v>
@@ -7232,15 +7583,15 @@
         <v>1.76</v>
       </c>
       <c r="BQ19" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -7420,19 +7771,19 @@
         <v>0</v>
       </c>
       <c r="BJ20" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK20" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="BL20" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="BM20" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="BN20" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="BO20">
         <v>1.56</v>
@@ -7441,15 +7792,15 @@
         <v>3.81</v>
       </c>
       <c r="BQ20" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -7629,19 +7980,19 @@
         <v>0</v>
       </c>
       <c r="BJ21" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK21" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="BL21" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="BM21" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="BN21" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="BO21">
         <v>1.92</v>
@@ -7650,15 +8001,15 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="BQ21" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -7838,19 +8189,19 @@
         <v>0</v>
       </c>
       <c r="BJ22" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK22" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="BL22" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="BM22" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="BN22" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="BO22">
         <v>3.36</v>
@@ -7859,15 +8210,15 @@
         <v>1.43</v>
       </c>
       <c r="BQ22" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -8047,19 +8398,19 @@
         <v>0</v>
       </c>
       <c r="BJ23" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK23" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="BL23" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="BM23" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="BN23" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="BO23">
         <v>1.92</v>
@@ -8068,15 +8419,15 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="BQ23" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -8256,19 +8607,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ24" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="BK24" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="BL24" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="BM24" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="BN24" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="BO24">
         <v>1.32</v>
@@ -8277,15 +8628,15 @@
         <v>5.23</v>
       </c>
       <c r="BQ24" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -8465,19 +8816,19 @@
         <v>0</v>
       </c>
       <c r="BJ25" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="BK25" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BL25" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="BM25" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="BN25" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="BO25">
         <v>1.76</v>
@@ -8486,15 +8837,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="BQ25" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -8674,19 +9025,19 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK26" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="BL26" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="BM26" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="BN26" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="BO26">
         <v>3.83</v>
@@ -8695,15 +9046,15 @@
         <v>1.36</v>
       </c>
       <c r="BQ26" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -8883,19 +9234,19 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="BJ27" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="BK27" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="BL27" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="BM27" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="BN27" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BO27">
         <v>1.34</v>
@@ -8904,15 +9255,15 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="BQ27" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -9092,19 +9443,19 @@
         <v>0</v>
       </c>
       <c r="BJ28" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="BK28" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="BL28" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="BM28" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="BN28" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="BO28">
         <v>2.76</v>
@@ -9113,15 +9464,15 @@
         <v>1.57</v>
       </c>
       <c r="BQ28" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -9301,19 +9652,19 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="BJ29" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="BK29" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="BL29" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="BM29" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="BN29" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="BO29">
         <v>1.35</v>
@@ -9322,15 +9673,15 @@
         <v>4.07</v>
       </c>
       <c r="BQ29" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -9510,19 +9861,19 @@
         <v>0</v>
       </c>
       <c r="BJ30" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="BK30" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="BL30" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="BM30" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="BN30" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="BO30">
         <v>1.98</v>
@@ -9531,15 +9882,15 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="BQ30" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -9719,19 +10070,19 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="BJ31" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="BK31" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="BL31" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="BM31" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="BN31" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="BO31">
         <v>1.26</v>
@@ -9740,15 +10091,15 @@
         <v>5.14</v>
       </c>
       <c r="BQ31" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -9928,19 +10279,19 @@
         <v>0</v>
       </c>
       <c r="BJ32" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="BK32" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="BL32" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="BM32" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="BN32" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="BO32">
         <v>1.99</v>
@@ -9949,15 +10300,15 @@
         <v>2.02</v>
       </c>
       <c r="BQ32" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -10137,19 +10488,19 @@
         <v>0</v>
       </c>
       <c r="BJ33" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="BK33" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="BL33" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="BM33" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="BN33" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="BO33">
         <v>2.73</v>
@@ -10158,15 +10509,15 @@
         <v>1.58</v>
       </c>
       <c r="BQ33" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -10346,19 +10697,19 @@
         <v>0</v>
       </c>
       <c r="BJ34" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK34" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="BL34" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="BM34" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="BN34" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="BO34">
         <v>4.6500000000000004</v>
@@ -10367,15 +10718,15 @@
         <v>1.28</v>
       </c>
       <c r="BQ34" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -10555,19 +10906,19 @@
         <v>0</v>
       </c>
       <c r="BJ35" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="BK35" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="BL35" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="BM35" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="BN35" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="BO35">
         <v>2.63</v>
@@ -10576,15 +10927,15 @@
         <v>74.63</v>
       </c>
       <c r="BQ35" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -10764,19 +11115,19 @@
         <v>0</v>
       </c>
       <c r="BJ36" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="BK36" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="BL36" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="BM36" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="BN36" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="BO36">
         <v>1.37</v>
@@ -10785,15 +11136,15 @@
         <v>4.3</v>
       </c>
       <c r="BQ36" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -10973,19 +11324,19 @@
         <v>0</v>
       </c>
       <c r="BJ37" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="BK37" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="BL37" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="BM37" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="BN37" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="BO37">
         <v>1.54</v>
@@ -10994,15 +11345,15 @@
         <v>2.98</v>
       </c>
       <c r="BQ37" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -11182,19 +11533,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ38" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="BK38" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="BL38" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="BM38" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="BN38" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="BO38">
         <v>1.41</v>
@@ -11203,15 +11554,15 @@
         <v>16.03</v>
       </c>
       <c r="BQ38" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -11391,19 +11742,19 @@
         <v>0</v>
       </c>
       <c r="BJ39" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="BK39" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="BL39" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="BM39" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="BN39" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="BO39">
         <v>2.67</v>
@@ -11412,15 +11763,15 @@
         <v>1.6</v>
       </c>
       <c r="BQ39" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -11600,19 +11951,19 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="BJ40" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="BK40" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="BL40" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="BM40" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="BN40" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="BO40">
         <v>1.24</v>
@@ -11621,15 +11972,15 @@
         <v>6.91</v>
       </c>
       <c r="BQ40" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -11809,19 +12160,19 @@
         <v>0</v>
       </c>
       <c r="BJ41" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="BK41" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="BL41" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="BM41" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="BN41" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="BO41">
         <v>1.42</v>
@@ -11830,15 +12181,15 @@
         <v>3.9</v>
       </c>
       <c r="BQ41" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -12018,19 +12369,19 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="BJ42" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="BK42" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="BL42" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="BM42" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="BN42" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="BO42">
         <v>1.39</v>
@@ -12039,15 +12390,15 @@
         <v>18.66</v>
       </c>
       <c r="BQ42" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -12227,19 +12578,19 @@
         <v>0</v>
       </c>
       <c r="BJ43" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="BK43" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="BL43" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="BM43" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="BN43" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="BO43">
         <v>1.54</v>
@@ -12248,15 +12599,15 @@
         <v>2.98</v>
       </c>
       <c r="BQ43" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -12436,19 +12787,19 @@
         <v>0</v>
       </c>
       <c r="BJ44" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="BK44" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="BL44" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="BM44" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="BN44" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="BO44">
         <v>1.71</v>
@@ -12457,15 +12808,15 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="BQ44" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -12645,19 +12996,19 @@
         <v>0</v>
       </c>
       <c r="BJ45" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK45" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="BL45" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="BM45" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="BN45" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="BO45">
         <v>13.68</v>
@@ -12666,15 +13017,15 @@
         <v>1.08</v>
       </c>
       <c r="BQ45" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -12854,19 +13205,19 @@
         <v>0</v>
       </c>
       <c r="BJ46" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="BK46" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="BL46" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="BM46" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="BN46" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="BO46">
         <v>3.42</v>
@@ -12875,15 +13226,15 @@
         <v>1.41</v>
       </c>
       <c r="BQ46" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -13063,19 +13414,19 @@
         <v>0</v>
       </c>
       <c r="BJ47" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="BK47" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="BL47" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="BM47" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="BN47" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="BO47">
         <v>3.27</v>
@@ -13084,15 +13435,15 @@
         <v>1.44</v>
       </c>
       <c r="BQ47" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -13272,19 +13623,19 @@
         <v>0</v>
       </c>
       <c r="BJ48" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="BK48" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="BL48" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="BM48" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="BN48" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="BO48">
         <v>3.47</v>
@@ -13293,15 +13644,15 @@
         <v>1.41</v>
       </c>
       <c r="BQ48" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -13481,19 +13832,19 @@
         <v>0</v>
       </c>
       <c r="BJ49" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK49" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="BL49" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="BM49" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="BN49" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="BO49">
         <v>3.83</v>
@@ -13502,15 +13853,15 @@
         <v>1.36</v>
       </c>
       <c r="BQ49" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -13690,19 +14041,19 @@
         <v>0</v>
       </c>
       <c r="BJ50" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="BK50" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="BL50" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="BM50" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="BN50" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="BO50">
         <v>3.98</v>
@@ -13711,15 +14062,15 @@
         <v>1.34</v>
       </c>
       <c r="BQ50" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -13899,19 +14250,19 @@
         <v>0</v>
       </c>
       <c r="BJ51" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="BK51" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="BL51" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="BM51" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="BN51" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="BO51">
         <v>1.89</v>
@@ -13920,15 +14271,15 @@
         <v>2.19</v>
       </c>
       <c r="BQ51" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -14108,19 +14459,19 @@
         <v>0</v>
       </c>
       <c r="BJ52" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="BK52" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="BL52" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="BM52" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="BN52" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="BO52">
         <v>4.24</v>
@@ -14129,15 +14480,15 @@
         <v>1.31</v>
       </c>
       <c r="BQ52" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -14317,19 +14668,19 @@
         <v>0</v>
       </c>
       <c r="BJ53" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="BK53" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="BL53" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="BM53" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="BN53" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="BO53">
         <v>2.02</v>
@@ -14338,15 +14689,15 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="BQ53" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -14526,19 +14877,19 @@
         <v>0</v>
       </c>
       <c r="BJ54" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="BK54" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="BL54" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="BM54" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="BN54" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="BO54">
         <v>3.47</v>
@@ -14547,15 +14898,15 @@
         <v>1.41</v>
       </c>
       <c r="BQ54" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -14735,19 +15086,19 @@
         <v>0</v>
       </c>
       <c r="BJ55" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="BK55" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="BL55" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="BM55" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="BN55" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="BO55">
         <v>6.58</v>
@@ -14756,15 +15107,15 @@
         <v>1.18</v>
       </c>
       <c r="BQ55" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -14944,19 +15295,19 @@
         <v>0</v>
       </c>
       <c r="BJ56" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK56" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="BL56" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="BM56" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="BN56" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="BO56">
         <v>4.6500000000000004</v>
@@ -14965,15 +15316,15 @@
         <v>1.28</v>
       </c>
       <c r="BQ56" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -15153,19 +15504,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ57" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="BK57" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="BL57" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="BM57" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="BN57" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="BO57">
         <v>1.3</v>
@@ -15174,15 +15525,15 @@
         <v>9</v>
       </c>
       <c r="BQ57" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -15362,19 +15713,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ58" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="BK58" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="BL58" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="BM58" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="BN58" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="BO58">
         <v>1.56</v>
@@ -15383,15 +15734,15 @@
         <v>2.8</v>
       </c>
       <c r="BQ58" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="59" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -15571,19 +15922,19 @@
         <v>0</v>
       </c>
       <c r="BJ59" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="BK59" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BL59" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="BM59" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="BN59" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="BO59">
         <v>1.76</v>
@@ -15592,15 +15943,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="BQ59" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="60" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -15780,19 +16131,19 @@
         <v>0</v>
       </c>
       <c r="BJ60" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK60" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="BL60" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="BM60" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="BN60" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="BO60">
         <v>3.83</v>
@@ -15801,15 +16152,15 @@
         <v>1.36</v>
       </c>
       <c r="BQ60" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -15989,19 +16340,19 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="BJ61" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="BK61" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="BL61" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="BM61" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="BN61" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="BO61">
         <v>1.24</v>
@@ -16010,15 +16361,15 @@
         <v>5.81</v>
       </c>
       <c r="BQ61" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -16198,19 +16549,19 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="BJ62" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="BK62" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="BL62" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="BM62" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="BN62" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="BO62">
         <v>1.27</v>
@@ -16219,15 +16570,15 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="BQ62" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -16407,19 +16758,19 @@
         <v>0</v>
       </c>
       <c r="BJ63" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="BK63" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="BL63" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="BM63" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="BN63" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="BO63">
         <v>1.71</v>
@@ -16428,15 +16779,15 @@
         <v>2.42</v>
       </c>
       <c r="BQ63" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="64" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -16616,19 +16967,19 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="BJ64" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="BK64" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="BL64" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="BM64" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="BN64" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="BO64">
         <v>1.2</v>
@@ -16637,15 +16988,15 @@
         <v>7.35</v>
       </c>
       <c r="BQ64" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -16825,19 +17176,19 @@
         <v>0</v>
       </c>
       <c r="BJ65" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="BK65" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BL65" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="BM65" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="BN65" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="BO65">
         <v>1.76</v>
@@ -16846,15 +17197,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="BQ65" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -17034,19 +17385,19 @@
         <v>0</v>
       </c>
       <c r="BJ66" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="BK66" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="BL66" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="BM66" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="BN66" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="BO66">
         <v>2.2799999999999998</v>
@@ -17055,15 +17406,15 @@
         <v>1.78</v>
       </c>
       <c r="BQ66" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="67" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -17243,19 +17594,19 @@
         <v>0</v>
       </c>
       <c r="BJ67" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK67" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="BL67" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="BM67" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="BN67" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="BO67">
         <v>4.6500000000000004</v>
@@ -17264,15 +17615,15 @@
         <v>1.28</v>
       </c>
       <c r="BQ67" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -17452,19 +17803,19 @@
         <v>0</v>
       </c>
       <c r="BJ68" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="BK68" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="BL68" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="BM68" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="BN68" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="BO68">
         <v>1.41</v>
@@ -17473,15 +17824,15 @@
         <v>5.87</v>
       </c>
       <c r="BQ68" t="s">
-        <v>721</v>
+        <v>748</v>
       </c>
     </row>
     <row r="69" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -17661,19 +18012,19 @@
         <v>0</v>
       </c>
       <c r="BJ69" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="BK69" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="BL69" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="BM69" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="BN69" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="BO69">
         <v>2.41</v>
@@ -17682,15 +18033,15 @@
         <v>1.72</v>
       </c>
       <c r="BQ69" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="70" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -17870,19 +18221,19 @@
         <v>0</v>
       </c>
       <c r="BJ70" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="BK70" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="BL70" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="BM70" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="BN70" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="BO70">
         <v>3.08</v>
@@ -17891,15 +18242,15 @@
         <v>1.48</v>
       </c>
       <c r="BQ70" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="71" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -18079,19 +18430,19 @@
         <v>0</v>
       </c>
       <c r="BJ71" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK71" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="BL71" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="BM71" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="BN71" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="BO71">
         <v>28.25</v>
@@ -18100,15 +18451,15 @@
         <v>1.04</v>
       </c>
       <c r="BQ71" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -18288,19 +18639,19 @@
         <v>0</v>
       </c>
       <c r="BJ72" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="BK72" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="BL72" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="BM72" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="BN72" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="BO72">
         <v>1.55</v>
@@ -18309,15 +18660,15 @@
         <v>3.02</v>
       </c>
       <c r="BQ72" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -18497,19 +18848,19 @@
         <v>0</v>
       </c>
       <c r="BJ73" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="BK73" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="BL73" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="BM73" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="BN73" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="BO73">
         <v>6.74</v>
@@ -18518,15 +18869,15 @@
         <v>1.17</v>
       </c>
       <c r="BQ73" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="74" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -18706,19 +19057,19 @@
         <v>0</v>
       </c>
       <c r="BJ74" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="BK74" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="BL74" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="BM74" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="BN74" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="BO74">
         <v>2.59</v>
@@ -18727,15 +19078,15 @@
         <v>1.64</v>
       </c>
       <c r="BQ74" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -18915,19 +19266,19 @@
         <v>0</v>
       </c>
       <c r="BJ75" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="BK75" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="BL75" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="BM75" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="BN75" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="BO75">
         <v>1.48</v>
@@ -18936,15 +19287,15 @@
         <v>3.28</v>
       </c>
       <c r="BQ75" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -19124,19 +19475,19 @@
         <v>0</v>
       </c>
       <c r="BJ76" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="BK76" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="BL76" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="BM76" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="BN76" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="BO76">
         <v>3.08</v>
@@ -19145,15 +19496,15 @@
         <v>1.48</v>
       </c>
       <c r="BQ76" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -19333,19 +19684,19 @@
         <v>0</v>
       </c>
       <c r="BJ77" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="BK77" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="BL77" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="BM77" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="BN77" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="BO77">
         <v>3.75</v>
@@ -19354,15 +19705,15 @@
         <v>1.37</v>
       </c>
       <c r="BQ77" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -19542,19 +19893,19 @@
         <v>0</v>
       </c>
       <c r="BJ78" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK78" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="BL78" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="BM78" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="BN78" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="BO78">
         <v>36.630000000000003</v>
@@ -19563,15 +19914,15 @@
         <v>1.03</v>
       </c>
       <c r="BQ78" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="79" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -19751,19 +20102,19 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="BJ79" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="BK79" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="BL79" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="BM79" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="BN79" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="BO79">
         <v>1.26</v>
@@ -19772,15 +20123,15 @@
         <v>5.34</v>
       </c>
       <c r="BQ79" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -19960,19 +20311,19 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="BJ80" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="BK80" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="BL80" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="BM80" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="BN80" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="BO80">
         <v>1.39</v>
@@ -19981,15 +20332,15 @@
         <v>3.96</v>
       </c>
       <c r="BQ80" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -20169,19 +20520,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ81" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="BK81" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="BL81" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="BM81" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="BN81" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="BO81">
         <v>1.46</v>
@@ -20190,15 +20541,15 @@
         <v>3.5</v>
       </c>
       <c r="BQ81" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -20378,19 +20729,19 @@
         <v>0</v>
       </c>
       <c r="BJ82" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK82" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="BL82" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="BM82" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="BN82" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="BO82">
         <v>1.74</v>
@@ -20399,15 +20750,15 @@
         <v>2.63</v>
       </c>
       <c r="BQ82" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -20587,19 +20938,19 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="BJ83" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="BK83" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="BL83" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="BM83" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="BN83" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="BO83">
         <v>1.23</v>
@@ -20608,15 +20959,15 @@
         <v>7.21</v>
       </c>
       <c r="BQ83" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -20796,19 +21147,19 @@
         <v>0</v>
       </c>
       <c r="BJ84" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="BK84" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="BL84" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="BM84" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="BN84" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="BO84">
         <v>1.64</v>
@@ -20817,15 +21168,15 @@
         <v>2.77</v>
       </c>
       <c r="BQ84" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -21005,19 +21356,19 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="BJ85" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="BK85" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="BL85" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="BM85" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="BN85" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="BO85">
         <v>1.33</v>
@@ -21026,15 +21377,15 @@
         <v>11.9</v>
       </c>
       <c r="BQ85" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="86" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -21214,19 +21565,19 @@
         <v>1.8E-3</v>
       </c>
       <c r="BJ86" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="BK86" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="BL86" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="BM86" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="BN86" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="BO86">
         <v>1.23</v>
@@ -21235,15 +21586,15 @@
         <v>11.17</v>
       </c>
       <c r="BQ86" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -21423,19 +21774,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ87" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="BK87" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="BL87" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="BM87" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="BN87" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="BO87">
         <v>1.46</v>
@@ -21444,15 +21795,15 @@
         <v>3.5</v>
       </c>
       <c r="BQ87" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -21632,19 +21983,19 @@
         <v>0</v>
       </c>
       <c r="BJ88" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="BK88" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="BL88" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="BM88" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="BN88" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="BO88">
         <v>1.95</v>
@@ -21653,15 +22004,15 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="BQ88" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -21841,19 +22192,19 @@
         <v>0</v>
       </c>
       <c r="BJ89" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK89" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="BL89" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="BM89" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="BN89" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="BO89">
         <v>1.92</v>
@@ -21862,15 +22213,15 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="BQ89" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -22050,19 +22401,19 @@
         <v>0</v>
       </c>
       <c r="BJ90" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="BK90" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="BL90" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="BM90" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="BN90" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="BO90">
         <v>1.86</v>
@@ -22071,15 +22422,15 @@
         <v>2.23</v>
       </c>
       <c r="BQ90" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -22259,19 +22610,19 @@
         <v>0</v>
       </c>
       <c r="BJ91" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="BK91" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="BL91" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="BM91" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="BN91" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="BO91">
         <v>4.28</v>
@@ -22280,15 +22631,15 @@
         <v>1.31</v>
       </c>
       <c r="BQ91" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -22468,19 +22819,19 @@
         <v>0</v>
       </c>
       <c r="BJ92" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="BK92" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="BL92" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="BM92" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="BN92" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="BO92">
         <v>5.52</v>
@@ -22489,15 +22840,15 @@
         <v>1.22</v>
       </c>
       <c r="BQ92" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -22677,19 +23028,19 @@
         <v>0</v>
       </c>
       <c r="BJ93" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK93" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="BL93" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="BM93" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="BN93" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="BO93">
         <v>28.25</v>
@@ -22698,15 +23049,15 @@
         <v>1.04</v>
       </c>
       <c r="BQ93" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="94" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -22886,19 +23237,19 @@
         <v>0</v>
       </c>
       <c r="BJ94" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="BK94" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BL94" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="BM94" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="BN94" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="BO94">
         <v>2.4</v>
@@ -22907,15 +23258,15 @@
         <v>1.72</v>
       </c>
       <c r="BQ94" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -23095,19 +23446,19 @@
         <v>0</v>
       </c>
       <c r="BJ95" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="BK95" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="BL95" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="BM95" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="BN95" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="BO95">
         <v>11.17</v>
@@ -23116,15 +23467,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BQ95" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="96" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -23304,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="BJ96" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="BK96" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="BL96" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="BM96" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="BN96" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="BO96">
         <v>2.88</v>
@@ -23325,15 +23676,15 @@
         <v>1.53</v>
       </c>
       <c r="BQ96" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="97" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -23513,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="BJ97" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="BK97" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="BL97" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="BM97" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="BN97" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="BO97">
         <v>4.8499999999999996</v>
@@ -23534,15 +23885,15 @@
         <v>1.26</v>
       </c>
       <c r="BQ97" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -23722,19 +24073,19 @@
         <v>0</v>
       </c>
       <c r="BJ98" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="BK98" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="BL98" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="BM98" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="BN98" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="BO98">
         <v>5.52</v>
@@ -23743,15 +24094,15 @@
         <v>1.22</v>
       </c>
       <c r="BQ98" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="99" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -23931,19 +24282,19 @@
         <v>0</v>
       </c>
       <c r="BJ99" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="BK99" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="BL99" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="BM99" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="BN99" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
       <c r="BO99">
         <v>7.64</v>
@@ -23952,15 +24303,15 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="BQ99" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -24140,19 +24491,19 @@
         <v>0</v>
       </c>
       <c r="BJ100" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK100" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="BL100" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="BM100" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="BN100" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="BO100">
         <v>36.630000000000003</v>
@@ -24161,15 +24512,15 @@
         <v>1.03</v>
       </c>
       <c r="BQ100" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -24349,19 +24700,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ101" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="BK101" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="BL101" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="BM101" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="BN101" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="BO101">
         <v>1.3</v>
@@ -24370,15 +24721,15 @@
         <v>9</v>
       </c>
       <c r="BQ101" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -24558,19 +24909,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ102" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="BK102" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="BL102" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="BM102" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="BN102" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="BO102">
         <v>1.56</v>
@@ -24579,15 +24930,15 @@
         <v>2.8</v>
       </c>
       <c r="BQ102" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="103" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -24767,19 +25118,19 @@
         <v>0</v>
       </c>
       <c r="BJ103" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="BK103" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BL103" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="BM103" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="BN103" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="BO103">
         <v>1.76</v>
@@ -24788,15 +25139,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="BQ103" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -24976,19 +25327,19 @@
         <v>0</v>
       </c>
       <c r="BJ104" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK104" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="BL104" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="BM104" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="BN104" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="BO104">
         <v>3.83</v>
@@ -24997,15 +25348,15 @@
         <v>1.36</v>
       </c>
       <c r="BQ104" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="105" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -25185,19 +25536,19 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="BJ105" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="BK105" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="BL105" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="BM105" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="BN105" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="BO105">
         <v>1.24</v>
@@ -25206,15 +25557,15 @@
         <v>5.81</v>
       </c>
       <c r="BQ105" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
@@ -25394,19 +25745,19 @@
         <v>0</v>
       </c>
       <c r="BJ106" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="BK106" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="BL106" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="BM106" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="BN106" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="BO106">
         <v>2.5099999999999998</v>
@@ -25415,15 +25766,15 @@
         <v>1.67</v>
       </c>
       <c r="BQ106" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="107" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -25603,19 +25954,19 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="BJ107" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="BK107" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="BL107" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="BM107" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="BN107" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="BO107">
         <v>1.27</v>
@@ -25624,15 +25975,15 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="BQ107" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="108" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -25812,19 +26163,19 @@
         <v>0</v>
       </c>
       <c r="BJ108" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="BK108" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="BL108" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="BM108" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="BN108" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="BO108">
         <v>1.71</v>
@@ -25833,15 +26184,15 @@
         <v>2.42</v>
       </c>
       <c r="BQ108" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="109" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -26021,19 +26372,19 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="BJ109" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="BK109" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="BL109" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="BM109" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="BN109" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="BO109">
         <v>1.2</v>
@@ -26042,15 +26393,15 @@
         <v>7.35</v>
       </c>
       <c r="BQ109" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -26230,19 +26581,19 @@
         <v>0</v>
       </c>
       <c r="BJ110" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="BK110" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="BL110" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="BM110" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="BN110" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="BO110">
         <v>2.2799999999999998</v>
@@ -26251,15 +26602,15 @@
         <v>1.78</v>
       </c>
       <c r="BQ110" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="111" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
@@ -26439,19 +26790,19 @@
         <v>0</v>
       </c>
       <c r="BJ111" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK111" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="BL111" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="BM111" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="BN111" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="BO111">
         <v>4.6500000000000004</v>
@@ -26460,15 +26811,15 @@
         <v>1.28</v>
       </c>
       <c r="BQ111" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="112" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -26648,19 +26999,19 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="BJ112" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="BK112" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="BL112" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="BM112" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="BN112" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="BO112">
         <v>1.35</v>
@@ -26669,15 +27020,15 @@
         <v>4.08</v>
       </c>
       <c r="BQ112" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="113" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -26857,19 +27208,19 @@
         <v>1E-4</v>
       </c>
       <c r="BJ113" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="BK113" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="BL113" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="BM113" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="BN113" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="BO113">
         <v>1.6</v>
@@ -26878,15 +27229,15 @@
         <v>2.73</v>
       </c>
       <c r="BQ113" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -27066,19 +27417,19 @@
         <v>0</v>
       </c>
       <c r="BJ114" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="BK114" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="BL114" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="BM114" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="BN114" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="BO114">
         <v>1.72</v>
@@ -27087,15 +27438,15 @@
         <v>2.44</v>
       </c>
       <c r="BQ114" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -27275,19 +27626,19 @@
         <v>0</v>
       </c>
       <c r="BJ115" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK115" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="BL115" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="BM115" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="BN115" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="BO115">
         <v>2.2799999999999998</v>
@@ -27296,15 +27647,15 @@
         <v>1.83</v>
       </c>
       <c r="BQ115" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="116" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -27484,19 +27835,19 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="BJ116" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="BK116" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="BL116" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="BM116" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="BN116" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="BO116">
         <v>1.31</v>
@@ -27505,15 +27856,15 @@
         <v>4.55</v>
       </c>
       <c r="BQ116" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="117" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -27693,19 +28044,19 @@
         <v>0</v>
       </c>
       <c r="BJ117" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="BK117" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="BL117" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="BM117" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="BN117" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="BO117">
         <v>2.06</v>
@@ -27714,15 +28065,15 @@
         <v>1.98</v>
       </c>
       <c r="BQ117" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="118" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -27902,19 +28253,19 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="BJ118" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="BK118" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="BL118" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="BM118" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="BN118" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="BO118">
         <v>1.3</v>
@@ -27923,15 +28274,15 @@
         <v>6.06</v>
       </c>
       <c r="BQ118" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -28111,19 +28462,19 @@
         <v>0</v>
       </c>
       <c r="BJ119" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="BK119" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="BL119" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="BM119" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="BN119" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="BO119">
         <v>1.82</v>
@@ -28132,15 +28483,15 @@
         <v>2.23</v>
       </c>
       <c r="BQ119" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -28320,19 +28671,19 @@
         <v>1E-3</v>
       </c>
       <c r="BJ120" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="BK120" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="BL120" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="BM120" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="BN120" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="BO120">
         <v>1.24</v>
@@ -28341,15 +28692,15 @@
         <v>6.26</v>
       </c>
       <c r="BQ120" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="121" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -28529,19 +28880,19 @@
         <v>0</v>
       </c>
       <c r="BJ121" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="BK121" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="BL121" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="BM121" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="BN121" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="BO121">
         <v>1.72</v>
@@ -28550,15 +28901,15 @@
         <v>2.44</v>
       </c>
       <c r="BQ121" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -28738,19 +29089,19 @@
         <v>0</v>
       </c>
       <c r="BJ122" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK122" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="BL122" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="BM122" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="BN122" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="BO122">
         <v>2.63</v>
@@ -28759,15 +29110,15 @@
         <v>1.63</v>
       </c>
       <c r="BQ122" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="123" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -28947,19 +29298,19 @@
         <v>0</v>
       </c>
       <c r="BJ123" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="BK123" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="BL123" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="BM123" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="BN123" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="BO123">
         <v>2.21</v>
@@ -28968,15 +29319,15 @@
         <v>1.83</v>
       </c>
       <c r="BQ123" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -29156,19 +29507,19 @@
         <v>0</v>
       </c>
       <c r="BJ124" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="BK124" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="BL124" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="BM124" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="BN124" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="BO124">
         <v>3.2</v>
@@ -29177,15 +29528,15 @@
         <v>1.46</v>
       </c>
       <c r="BQ124" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
@@ -29365,19 +29716,19 @@
         <v>0</v>
       </c>
       <c r="BJ125" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="BK125" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="BL125" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="BM125" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="BN125" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="BO125">
         <v>3.62</v>
@@ -29386,15 +29737,15 @@
         <v>1.38</v>
       </c>
       <c r="BQ125" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
@@ -29574,19 +29925,19 @@
         <v>0</v>
       </c>
       <c r="BJ126" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="BK126" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="BL126" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="BM126" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="BN126" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="BO126">
         <v>5.84</v>
@@ -29595,15 +29946,15 @@
         <v>1.21</v>
       </c>
       <c r="BQ126" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="127" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -29783,19 +30134,19 @@
         <v>0</v>
       </c>
       <c r="BJ127" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="BK127" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="BL127" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="BM127" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="BN127" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="BO127">
         <v>2.17</v>
@@ -29804,15 +30155,15 @@
         <v>1.85</v>
       </c>
       <c r="BQ127" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="128" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -29992,19 +30343,19 @@
         <v>0</v>
       </c>
       <c r="BJ128" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="BK128" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="BL128" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="BM128" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="BN128" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="BO128">
         <v>4.8899999999999997</v>
@@ -30013,15 +30364,15 @@
         <v>1.26</v>
       </c>
       <c r="BQ128" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -30201,19 +30552,19 @@
         <v>0</v>
       </c>
       <c r="BJ129" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="BK129" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="BL129" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="BM129" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="BN129" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="BO129">
         <v>1.97</v>
@@ -30222,15 +30573,15 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="BQ129" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -30410,19 +30761,19 @@
         <v>0</v>
       </c>
       <c r="BJ130" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="BK130" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="BL130" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="BM130" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="BN130" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="BO130">
         <v>3.91</v>
@@ -30431,15 +30782,15 @@
         <v>1.34</v>
       </c>
       <c r="BQ130" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -30619,19 +30970,19 @@
         <v>0</v>
       </c>
       <c r="BJ131" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="BK131" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="BL131" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="BM131" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="BN131" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="BO131">
         <v>1.89</v>
@@ -30640,15 +30991,15 @@
         <v>2.13</v>
       </c>
       <c r="BQ131" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -30828,19 +31179,19 @@
         <v>0</v>
       </c>
       <c r="BJ132" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="BK132" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="BL132" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="BM132" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="BN132" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="BO132">
         <v>3.62</v>
@@ -30849,15 +31200,15 @@
         <v>1.38</v>
       </c>
       <c r="BQ132" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="133" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -31037,19 +31388,19 @@
         <v>0</v>
       </c>
       <c r="BJ133" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="BK133" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="BL133" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="BM133" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="BN133" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="BO133">
         <v>6.02</v>
@@ -31058,7 +31409,7 @@
         <v>1.2</v>
       </c>
       <c r="BQ133" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -31066,7 +31417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -31076,16 +31427,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -31096,13 +31447,13 @@
         <v>2012</v>
       </c>
       <c r="C2" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="D2" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="E2" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -31113,13 +31464,13 @@
         <v>2013</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -31130,13 +31481,13 @@
         <v>2014</v>
       </c>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -31147,13 +31498,13 @@
         <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -31164,13 +31515,13 @@
         <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -31181,47 +31532,47 @@
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="E7" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="E8" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="E9" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -31232,30 +31583,30 @@
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="D10" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="E10" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>2021</v>
       </c>
       <c r="C11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E11" t="s">
         <v>399</v>
-      </c>
-      <c r="D11" t="s">
-        <v>736</v>
-      </c>
-      <c r="E11" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -31263,7 +31614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -31273,13 +31624,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="C1" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="D1" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -31290,10 +31641,10 @@
         <v>2012</v>
       </c>
       <c r="C2" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -31304,10 +31655,10 @@
         <v>2013</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -31318,10 +31669,10 @@
         <v>2014</v>
       </c>
       <c r="C4" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -31332,10 +31683,10 @@
         <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -31346,10 +31697,10 @@
         <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="D6" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -31360,38 +31711,38 @@
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="D7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="D9" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -31402,24 +31753,24 @@
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="D10" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>2021</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -33913,15 +34264,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -33929,689 +34278,991 @@
         <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-4</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-9</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J13">
-    <sortCondition descending="1" ref="J2:J13"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>126</v>
+      <c r="J13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -34621,267 +35272,315 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
+      <c r="G2" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
         <v>135</v>
       </c>
-      <c r="F4" t="s">
-        <v>142</v>
+      <c r="G4" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
         <v>136</v>
       </c>
-      <c r="F5" t="s">
-        <v>143</v>
+      <c r="G5" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
       </c>
+      <c r="G11" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>139</v>
-      </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -34899,19 +35598,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -34919,19 +35618,19 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -34939,19 +35638,19 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -34959,19 +35658,19 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -34979,19 +35678,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -34999,19 +35698,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -35019,59 +35718,59 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -35079,79 +35778,79 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/FIN.xlsx
+++ b/FIN.xlsx
@@ -2523,10 +2523,10 @@
   <dimension ref="A1:BQ133"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AP56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AP35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62:XFD62"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35263,7 +35263,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" activeCellId="1" sqref="A11:XFD11 A4:XFD4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FIN.xlsx
+++ b/FIN.xlsx
@@ -578,256 +578,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AC Oulu,L L L L L L W L L D L W L L W W W D L D L L D L</t>
-  </si>
-  <si>
-    <t>Haka,L L L W W L D L D L L D L W W L L L L W W W D D</t>
-  </si>
-  <si>
-    <t>HIFK,W D D W L W W D L D L W D L W W W L L W D L L D</t>
-  </si>
-  <si>
-    <t>HJK,W D W W W W W W W W W L W D W W W D W D L L L W</t>
-  </si>
-  <si>
-    <t>Honka,L L W L L L W L L W D W D D W L W L W D L D D L</t>
-  </si>
-  <si>
-    <t>Ilves,W L D W W L L L W D W L L W L L L W W W W D L L</t>
-  </si>
-  <si>
-    <t>Inter Turku,W L W W W W W L W L D L W D L L W W L D W W W L</t>
-  </si>
-  <si>
-    <t>KTP,D L W L L L L L D D L D D L L L L L L L L L L W</t>
-  </si>
-  <si>
-    <t>KuPS,L D W W L L W W W W W W W D W W D W W W W D W W</t>
-  </si>
-  <si>
-    <t>Lahti,W L L W W W D D D W W D D W D L L D L D W L W D</t>
-  </si>
-  <si>
-    <t>Mariehamn,W W L L L L L L L D W D L L L L W L W W L W D W</t>
-  </si>
-  <si>
-    <t>SJK,D D W L W L W L W W L W W D W W L L W D L W W D</t>
-  </si>
-  <si>
-    <t>AC Oulu,0 1 0 1 1 0 3 0 0 1 0 2 2 0 1 2 1 1 1 0 0 0 0 1,(18)</t>
-  </si>
-  <si>
-    <t>Haka,0 1 0 3 2 1 1 1 1 0 0 0 0 1 2 0 0 1 0 4 1 2 0 1,(22)</t>
-  </si>
-  <si>
-    <t>HIFK,2 1 1 2 1 2 1 0 0 0 0 1 2 1 3 1 3 0 0 2 0 0 0 2,(25)</t>
-  </si>
-  <si>
-    <t>HJK,4 0 3 2 2 3 2 1 2 2 1 1 2 0 1 1 1 1 3 0 0 0 2 3,(37)</t>
-  </si>
-  <si>
-    <t>Honka,2 0 3 1 0 0 2 0 1 2 1 1 1 2 4 2 3 0 3 0 0 0 1 0,(29)</t>
-  </si>
-  <si>
-    <t>Ilves,2 0 1 3 2 1 0 1 2 1 1 0 0 1 1 0 0 1 1 1 2 0 1 2,(24)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 1 2 2 2 4 3 0 2 1 1 0 2 2 0 0 2 3 1 2 4 1 2 2,(40)</t>
-  </si>
-  <si>
-    <t>KTP,1 1 3 1 0 0 1 0 1 1 1 0 2 0 0 0 1 1 0 1 1 2 1 2,(21)</t>
-  </si>
-  <si>
-    <t>KuPS,0 0 4 2 2 1 1 1 2 2 2 1 1 2 4 5 1 1 3 2 1 0 2 3,(43)</t>
-  </si>
-  <si>
-    <t>Lahti,2 2 0 1 3 3 1 0 1 2 1 1 1 3 2 0 0 1 0 0 2 1 2 1,(30)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 3 0 0 0 0 0 0 0 0 3 1 0 0 0 1 1 0 2 3 0 4 1 2,(23)</t>
-  </si>
-  <si>
-    <t>SJK,1 1 2 0 1 0 1 0 1 3 1 1 3 0 3 4 0 0 1 2 0 4 3 2,(34)</t>
-  </si>
-  <si>
-    <t>AC Oulu,2 3 2 2 3 2 1 2 2 1 1 1 3 1 0 0 0 1 3 0 4 1 0 2,(37)</t>
-  </si>
-  <si>
-    <t>Haka,2 2 3 0 1 2 1 2 1 1 1 0 2 0 0 1 4 2 1 0 0 0 0 1,(27)</t>
-  </si>
-  <si>
-    <t>HIFK,0 1 1 1 4 0 0 0 1 0 1 0 2 5 0 0 1 1 3 0 0 2 2 2,(27)</t>
-  </si>
-  <si>
-    <t>HJK,2 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 1 0 2 1 3 2,(17)</t>
-  </si>
-  <si>
-    <t>Honka,4 2 1 2 1 1 0 1 2 1 1 0 1 2 1 3 1 3 1 0 1 0 1 2,(32)</t>
-  </si>
-  <si>
-    <t>Ilves,0 3 1 2 0 3 1 2 1 1 0 1 1 0 4 2 1 0 0 0 0 0 2 3,(28)</t>
-  </si>
-  <si>
-    <t>Inter Turku,0 2 1 1 1 1 0 1 0 2 1 1 0 2 1 2 0 1 3 2 0 0 0 3,(25)</t>
-  </si>
-  <si>
-    <t>KTP,1 3 0 2 2 2 3 2 1 1 3 0 2 3 1 4 3 3 1 2 2 4 2 0,(47)</t>
-  </si>
-  <si>
-    <t>KuPS,1 0 2 0 3 2 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Lahti,1 4 2 0 0 1 1 0 1 1 0 1 1 0 2 2 1 1 1 0 1 4 1 1,(27)</t>
-  </si>
-  <si>
-    <t>Mariehamn,0 1 2 3 3 3 1 1 3 0 1 1 2 1 1 3 0 1 1 0 2 2 1 1,(34)</t>
-  </si>
-  <si>
-    <t>SJK,1 1 0 2 0 1 0 2 0 0 2 0 2 0 2 0 1 3 0 2 4 1 2 2,(28)</t>
-  </si>
-  <si>
-    <t>AC Oulu,2 4 2 3 4 2 4 2 2 2 1 3 5 1 1 2 1 2 4 0 4 1 0 3,(55)</t>
-  </si>
-  <si>
-    <t>Haka,2 3 3 3 3 3 2 3 2 1 1 0 2 1 2 1 4 3 1 4 1 2 0 2,(49)</t>
-  </si>
-  <si>
-    <t>HIFK,2 2 2 3 5 2 1 0 1 0 1 1 4 6 3 1 4 1 3 2 0 2 2 4,(52)</t>
-  </si>
-  <si>
-    <t>HJK,6 0 3 2 2 4 3 1 3 2 1 3 2 0 1 1 1 2 4 0 2 1 5 5,(54)</t>
-  </si>
-  <si>
-    <t>Honka,6 2 4 3 1 1 2 1 3 3 2 1 2 4 5 5 4 3 4 0 1 0 2 2,(61)</t>
-  </si>
-  <si>
-    <t>Ilves,2 3 2 5 2 4 1 3 3 2 1 1 1 1 5 2 1 1 1 1 2 0 3 5,(52)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 3 3 3 3 5 3 1 2 3 2 1 2 4 1 2 2 4 4 4 4 1 2 5,(65)</t>
-  </si>
-  <si>
-    <t>KTP,2 4 3 3 2 2 4 2 2 2 4 0 4 3 1 4 4 4 1 3 3 6 3 2,(68)</t>
-  </si>
-  <si>
-    <t>KuPS,1 0 6 2 5 3 1 1 3 2 2 1 1 4 4 6 2 1 3 3 1 0 3 5,(60)</t>
-  </si>
-  <si>
-    <t>Lahti,3 6 2 1 3 4 2 0 2 3 1 2 2 3 4 2 1 2 1 0 3 5 3 2,(57)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 4 2 3 3 3 1 1 3 0 4 2 2 1 1 4 1 1 3 3 2 6 2 3,(57)</t>
-  </si>
-  <si>
-    <t>SJK,2 2 2 2 1 1 1 2 1 3 3 1 5 0 5 4 1 3 1 4 4 5 5 4,(62)</t>
-  </si>
-  <si>
-    <t>AC Oulu,0-2 3-1 0-2 1-2 3-1 0-2 1-3 0-2 2-0 1-1 1-0 2-1 3-2 1-0 1-0 2-0 0-1 1-1 3-1 0-0 4-0 0-1 0-0 1-2</t>
-  </si>
-  <si>
-    <t>Haka,2-0 2-1 0-3 0-3 1-2 1-2 1-1 2-1 1-1 1-0 0-1 0-0 2-0 1-0 0-2 0-1 4-0 1-2 0-1 4-0 0-1 2-0 0-0 1-1</t>
-  </si>
-  <si>
-    <t>HIFK,2-0 1-1 1-1 1-2 1-4 0-2 1-0 0-0 0-1 0-0 0-1 0-1 2-2 1-5 0-3 1-0 3-1 1-0 0-3 0-2 0-0 2-0 2-0 2-2</t>
-  </si>
-  <si>
-    <t>HJK,4-2 0-0 0-3 2-0 0-2 3-1 1-2 0-1 2-1 2-0 0-1 2-1 2-0 0-0 0-1 1-0 0-1 1-1 1-3 0-0 0-2 0-1 2-3 2-3</t>
-  </si>
-  <si>
-    <t>Honka,4-2 0-2 1-3 1-2 1-0 0-1 0-2 1-0 2-1 2-1 1-1 1-0 1-1 2-2 4-1 3-2 1-3 0-3 3-1 0-0 0-1 0-0 1-1 2-0</t>
-  </si>
-  <si>
-    <t>Ilves,0-2 0-3 1-1 3-2 2-0 3-1 1-0 2-1 2-1 1-1 1-0 0-1 1-0 1-0 4-1 2-0 1-0 1-0 1-0 0-1 2-0 0-0 2-1 2-3</t>
-  </si>
-  <si>
-    <t>Inter Turku,1-0 2-1 2-1 1-2 2-1 1-4 3-0 1-0 2-0 2-1 1-1 0-1 0-2 2-2 1-0 2-0 2-0 1-3 1-3 2-2 4-0 0-1 2-0 2-3</t>
-  </si>
-  <si>
-    <t>KTP,1-1 1-3 0-3 2-1 2-0 0-2 1-3 2-0 1-1 1-1 1-3 0-0 2-2 3-0 0-1 4-0 1-3 3-1 0-1 1-2 1-2 4-2 2-1 2-0</t>
-  </si>
-  <si>
-    <t>KuPS,1-0 0-0 2-4 2-0 3-2 1-2 0-1 1-0 2-1 0-2 2-0 0-1 1-0 2-2 4-0 1-5 1-1 0-1 3-0 1-2 0-1 0-0 2-1 2-3</t>
-  </si>
-  <si>
-    <t>Lahti,2-1 2-4 2-0 1-0 0-3 3-1 1-1 0-0 1-1 2-1 0-1 1-1 1-1 3-0 2-2 0-2 0-1 1-1 1-0 0-0 1-2 4-1 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Mariehamn,0-2 3-1 2-0 0-3 0-3 3-0 0-1 0-1 3-0 0-0 1-3 1-1 0-2 1-0 1-0 1-3 1-0 0-1 1-2 0-3 2-0 4-2 1-1 1-2</t>
-  </si>
-  <si>
-    <t>SJK,1-1 1-1 0-2 0-2 0-1 0-1 1-0 2-0 0-1 3-0 2-1 0-1 3-2 0-0 3-2 4-0 1-0 3-0 0-1 2-2 4-0 4-1 2-3 2-2</t>
-  </si>
-  <si>
-    <t>AC Oulu,-2 -2 -2 -1 -2 -2 2 -2 -2 0 -1 1 -1 -1 1 2 1 0 -2 0 -4 -1 0 -1,(-19)</t>
-  </si>
-  <si>
-    <t>Haka,-2 -1 -3 3 1 -1 0 -1 0 -1 -1 0 -2 1 2 -1 -4 -1 -1 4 1 2 0 0,(-5)</t>
-  </si>
-  <si>
-    <t>HIFK,2 0 0 1 -3 2 1 0 -1 0 -1 1 0 -4 3 1 2 -1 -3 2 0 -2 -2 0,(-2)</t>
-  </si>
-  <si>
-    <t>HJK,2 0 3 2 2 2 1 1 1 2 1 -1 2 0 1 1 1 0 2 0 -2 -1 -1 1,(20)</t>
-  </si>
-  <si>
-    <t>Honka,-2 -2 2 -1 -1 -1 2 -1 -1 1 0 1 0 0 3 -1 2 -3 2 0 -1 0 0 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Ilves,2 -3 0 1 2 -2 -1 -1 1 0 1 -1 -1 1 -3 -2 -1 1 1 1 2 0 -1 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 -1 1 1 1 3 3 -1 2 -1 0 -1 2 0 -1 -2 2 2 -2 0 4 1 2 -1,(15)</t>
-  </si>
-  <si>
-    <t>KTP,0 -2 3 -1 -2 -2 -2 -2 0 0 -2 0 0 -3 -1 -4 -2 -2 -1 -1 -1 -2 -1 2,(-26)</t>
-  </si>
-  <si>
-    <t>KuPS,-1 0 2 2 -1 -1 1 1 1 2 2 1 1 0 4 4 0 1 3 1 1 0 1 1,(26)</t>
-  </si>
-  <si>
-    <t>Lahti,1 -2 -2 1 3 2 0 0 0 1 1 0 0 3 0 -2 -1 0 -1 0 1 -3 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 2 -2 -3 -3 -3 -1 -1 -3 0 2 0 -2 -1 -1 -2 1 -1 1 3 -2 2 0 1,(-11)</t>
-  </si>
-  <si>
-    <t>SJK,0 0 2 -2 1 -1 1 -2 1 3 -1 1 1 0 1 4 -1 -3 1 0 -4 3 1 0,(6)</t>
-  </si>
-  <si>
-    <t>AC Oulu,Ilves(7) Mariehamn(9) SJK(4) HIFK(6) HJK(2) Honka(8) KTP(12) KuPS(1) KuPS(1) KTP(12) Honka(8) HJK(2) SJK(4) Ilves(7) Mariehamn(9) Inter Turku(3) Haka(10) Lahti(5) HIFK(6) Lahti(5) Inter Turku(3) Haka(10) Haka(10) Mariehamn(9)</t>
-  </si>
-  <si>
-    <t>Haka,HIFK(6) Inter Turku(3) KTP(12) Mariehamn(9) KuPS(1) HJK(2) Lahti(5) Honka(8) Honka(8) Ilves(7) KuPS(1) KTP(12) HJK(2) Inter Turku(3) Lahti(5) AC Oulu(11) SJK(4) Mariehamn(9) Ilves(7) SJK(4) AC Oulu(11) HIFK(6) AC Oulu(11) Lahti(5)</t>
-  </si>
-  <si>
-    <t>HIFK,Haka(10) SJK(4) Ilves(7) AC Oulu(11) Inter Turku(3) KTP(12) Honka(8) Lahti(5) HJK(2) Mariehamn(9) Lahti(5) Inter Turku(3) KTP(12) KuPS(1) Honka(8) SJK(4) AC Oulu(11) Ilves(7) Mariehamn(9) HJK(2) KuPS(1) Haka(10) Inter Turku(3) SJK(4)</t>
-  </si>
-  <si>
-    <t>HJK,Honka(8) KuPS(1) Ilves(7) Lahti(5) SJK(4) AC Oulu(11) Haka(10) Mariehamn(9) Ilves(7) KTP(12) HIFK(6) AC Oulu(11) Haka(10) SJK(4) KTP(12) Mariehamn(9) Lahti(5) KuPS(1) Inter Turku(3) Honka(8) HIFK(6) Inter Turku(3) SJK(4) Ilves(7)</t>
-  </si>
-  <si>
-    <t>Honka,HJK(2) Mariehamn(9) KTP(12) Inter Turku(3) Lahti(5) SJK(4) AC Oulu(11) HIFK(6) KuPS(1) Haka(10) Haka(10) AC Oulu(11) Lahti(5) Inter Turku(3) Ilves(7) SJK(4) Mariehamn(9) HIFK(6) KTP(12) HJK(2) KuPS(1) Ilves(7) Mariehamn(9) KTP(12)</t>
-  </si>
-  <si>
-    <t>Ilves,AC Oulu(11) HJK(2) HIFK(6) KuPS(1) KTP(12) Lahti(5) SJK(4) HJK(2) Inter Turku(3) KTP(12) Haka(10) SJK(4) KuPS(1) AC Oulu(11) Honka(8) Inter Turku(3) Mariehamn(9) Lahti(5) HIFK(6) Haka(10) Mariehamn(9) Honka(8) KuPS(1) HJK(2)</t>
-  </si>
-  <si>
-    <t>Inter Turku,KuPS(1) Lahti(5) Haka(10) Honka(8) KTP(12) HIFK(6) Mariehamn(9) KuPS(1) SJK(4) Ilves(7) Lahti(5) HIFK(6) Mariehamn(9) Honka(8) Haka(10) AC Oulu(11) Ilves(7) KTP(12) HJK(2) SJK(4) AC Oulu(11) HJK(2) HIFK(6) KuPS(1)</t>
-  </si>
-  <si>
-    <t>KTP,SJK(4) Honka(8) Haka(10) Inter Turku(3) Ilves(7) HIFK(6) AC Oulu(11) HJK(2) Ilves(7) AC Oulu(11) Mariehamn(9) Haka(10) HIFK(6) Lahti(5) HJK(2) KuPS(1) Inter Turku(3) Honka(8) SJK(4) KuPS(1) Lahti(5) Mariehamn(9) Lahti(5) Honka(8)</t>
-  </si>
-  <si>
-    <t>KuPS,Inter Turku(3) HJK(2) Lahti(5) Mariehamn(9) Ilves(7) Haka(10) SJK(4) Inter Turku(3) Honka(8) AC Oulu(11) AC Oulu(11) Haka(10) Ilves(7) Lahti(5) KTP(12) HIFK(6) HJK(2) Mariehamn(9) SJK(4) KTP(12) Honka(8) HIFK(6) Ilves(7) Inter Turku(3)</t>
-  </si>
-  <si>
-    <t>Lahti,Inter Turku(3) KuPS(1) HJK(2) Honka(8) Mariehamn(9) Ilves(7) Haka(10) HIFK(6) Inter Turku(3) SJK(4) HIFK(6) Mariehamn(9) Honka(8) KTP(12) KuPS(1) Haka(10) HJK(2) AC Oulu(11) Ilves(7) AC Oulu(11) KTP(12) SJK(4) KTP(12) Haka(10)</t>
-  </si>
-  <si>
-    <t>Mariehamn,Honka(8) AC Oulu(11) KuPS(1) Haka(10) Lahti(5) Inter Turku(3) HJK(2) SJK(4) SJK(4) HIFK(6) KTP(12) Lahti(5) Inter Turku(3) AC Oulu(11) HJK(2) Honka(8) Ilves(7) KuPS(1) Haka(10) HIFK(6) Ilves(7) KTP(12) Honka(8) AC Oulu(11)</t>
-  </si>
-  <si>
-    <t>SJK,KTP(12) HIFK(6) AC Oulu(11) HJK(2) Honka(8) KuPS(1) Ilves(7) Inter Turku(3) Mariehamn(9) Mariehamn(9) Lahti(5) Ilves(7) AC Oulu(11) HJK(2) Honka(8) Haka(10) HIFK(6) KuPS(1) KTP(12) Inter Turku(3) Haka(10) Lahti(5) HJK(2) HIFK(6)</t>
+    <t>AC Oulu,L D L L D L</t>
+  </si>
+  <si>
+    <t>Haka,L W W W D D</t>
+  </si>
+  <si>
+    <t>HIFK,L W D L L D</t>
+  </si>
+  <si>
+    <t>HJK,W D L L L W</t>
+  </si>
+  <si>
+    <t>Honka,W D L D D L</t>
+  </si>
+  <si>
+    <t>Ilves,W W W D L L</t>
+  </si>
+  <si>
+    <t>Inter Turku,L D W W W L</t>
+  </si>
+  <si>
+    <t>KTP,L L L L L W</t>
+  </si>
+  <si>
+    <t>KuPS,W W W D W W</t>
+  </si>
+  <si>
+    <t>Lahti,L D W L W D</t>
+  </si>
+  <si>
+    <t>Mariehamn,W W L W D W</t>
+  </si>
+  <si>
+    <t>SJK,W D L W W D</t>
+  </si>
+  <si>
+    <t>AC Oulu,1 0 0 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Haka,0 4 1 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>HIFK,0 2 0 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>HJK,3 0 0 0 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Honka,3 0 0 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Ilves,1 1 2 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 2 4 1 2 2,(12)</t>
+  </si>
+  <si>
+    <t>KTP,0 1 1 2 1 2,(7)</t>
+  </si>
+  <si>
+    <t>KuPS,3 2 1 0 2 3,(11)</t>
+  </si>
+  <si>
+    <t>Lahti,0 0 2 1 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Mariehamn,2 3 0 4 1 2,(12)</t>
+  </si>
+  <si>
+    <t>SJK,1 2 0 4 3 2,(12)</t>
+  </si>
+  <si>
+    <t>AC Oulu,3 0 4 1 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Haka,1 0 0 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>HIFK,3 0 0 2 2 2,(9)</t>
+  </si>
+  <si>
+    <t>HJK,1 0 2 1 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Honka,1 0 1 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Ilves,0 0 0 0 2 3,(5)</t>
+  </si>
+  <si>
+    <t>Inter Turku,3 2 0 0 0 3,(8)</t>
+  </si>
+  <si>
+    <t>KTP,1 2 2 4 2 0,(11)</t>
+  </si>
+  <si>
+    <t>KuPS,0 1 0 0 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Lahti,1 0 1 4 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Mariehamn,1 0 2 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>SJK,0 2 4 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>AC Oulu,4 0 4 1 0 3,(12)</t>
+  </si>
+  <si>
+    <t>Haka,1 4 1 2 0 2,(10)</t>
+  </si>
+  <si>
+    <t>HIFK,3 2 0 2 2 4,(13)</t>
+  </si>
+  <si>
+    <t>HJK,4 0 2 1 5 5,(17)</t>
+  </si>
+  <si>
+    <t>Honka,4 0 1 0 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Ilves,1 1 2 0 3 5,(12)</t>
+  </si>
+  <si>
+    <t>Inter Turku,4 4 4 1 2 5,(20)</t>
+  </si>
+  <si>
+    <t>KTP,1 3 3 6 3 2,(18)</t>
+  </si>
+  <si>
+    <t>KuPS,3 3 1 0 3 5,(15)</t>
+  </si>
+  <si>
+    <t>Lahti,1 0 3 5 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Mariehamn,3 3 2 6 2 3,(19)</t>
+  </si>
+  <si>
+    <t>SJK,1 4 4 5 5 4,(23)</t>
+  </si>
+  <si>
+    <t>AC Oulu,3-1 0-0 4-0 0-1 0-0 1-2</t>
+  </si>
+  <si>
+    <t>Haka,0-1 4-0 0-1 2-0 0-0 1-1</t>
+  </si>
+  <si>
+    <t>HIFK,0-3 0-2 0-0 2-0 2-0 2-2</t>
+  </si>
+  <si>
+    <t>HJK,1-3 0-0 0-2 0-1 2-3 2-3</t>
+  </si>
+  <si>
+    <t>Honka,3-1 0-0 0-1 0-0 1-1 2-0</t>
+  </si>
+  <si>
+    <t>Ilves,1-0 0-1 2-0 0-0 2-1 2-3</t>
+  </si>
+  <si>
+    <t>Inter Turku,1-3 2-2 4-0 0-1 2-0 2-3</t>
+  </si>
+  <si>
+    <t>KTP,0-1 1-2 1-2 4-2 2-1 2-0</t>
+  </si>
+  <si>
+    <t>KuPS,3-0 1-2 0-1 0-0 2-1 2-3</t>
+  </si>
+  <si>
+    <t>Lahti,1-0 0-0 1-2 4-1 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Mariehamn,1-2 0-3 2-0 4-2 1-1 1-2</t>
+  </si>
+  <si>
+    <t>SJK,0-1 2-2 4-0 4-1 2-3 2-2</t>
+  </si>
+  <si>
+    <t>AC Oulu,-2 0 -4 -1 0 -1,(-8)</t>
+  </si>
+  <si>
+    <t>Haka,-1 4 1 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>HIFK,-3 2 0 -2 -2 0,(-5)</t>
+  </si>
+  <si>
+    <t>HJK,2 0 -2 -1 -1 1,(-1)</t>
+  </si>
+  <si>
+    <t>Honka,2 0 -1 0 0 -2,(-1)</t>
+  </si>
+  <si>
+    <t>Ilves,1 1 2 0 -1 -1,(2)</t>
+  </si>
+  <si>
+    <t>Inter Turku,-2 0 4 1 2 -1,(4)</t>
+  </si>
+  <si>
+    <t>KTP,-1 -1 -1 -2 -1 2,(-4)</t>
+  </si>
+  <si>
+    <t>KuPS,3 1 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Lahti,-1 0 1 -3 1 0,(-2)</t>
+  </si>
+  <si>
+    <t>Mariehamn,1 3 -2 2 0 1,(5)</t>
+  </si>
+  <si>
+    <t>SJK,1 0 -4 3 1 0,(1)</t>
+  </si>
+  <si>
+    <t>AC Oulu,HIFK(6) Lahti(5) Inter Turku(3) Haka(10) Haka(10) Mariehamn(9)</t>
+  </si>
+  <si>
+    <t>Haka,Ilves(7) SJK(4) AC Oulu(11) HIFK(6) AC Oulu(11) Lahti(5)</t>
+  </si>
+  <si>
+    <t>HIFK,Mariehamn(9) HJK(2) KuPS(1) Haka(10) Inter Turku(3) SJK(4)</t>
+  </si>
+  <si>
+    <t>HJK,Inter Turku(3) Honka(8) HIFK(6) Inter Turku(3) SJK(4) Ilves(7)</t>
+  </si>
+  <si>
+    <t>Honka,KTP(12) HJK(2) KuPS(1) Ilves(7) Mariehamn(9) KTP(12)</t>
+  </si>
+  <si>
+    <t>Ilves,HIFK(6) Haka(10) Mariehamn(9) Honka(8) KuPS(1) HJK(2)</t>
+  </si>
+  <si>
+    <t>Inter Turku,HJK(2) SJK(4) AC Oulu(11) HJK(2) HIFK(6) KuPS(1)</t>
+  </si>
+  <si>
+    <t>KTP,SJK(4) KuPS(1) Lahti(5) Mariehamn(9) Lahti(5) Honka(8)</t>
+  </si>
+  <si>
+    <t>KuPS,SJK(4) KTP(12) Honka(8) HIFK(6) Ilves(7) Inter Turku(3)</t>
+  </si>
+  <si>
+    <t>Lahti,Ilves(7) AC Oulu(11) KTP(12) SJK(4) KTP(12) Haka(10)</t>
+  </si>
+  <si>
+    <t>Mariehamn,Haka(10) HIFK(6) Ilves(7) KTP(12) Honka(8) AC Oulu(11)</t>
+  </si>
+  <si>
+    <t>SJK,KTP(12) Inter Turku(3) Haka(10) Lahti(5) HJK(2) HIFK(6)</t>
   </si>
   <si>
     <t>fin_division</t>

--- a/FIN.xlsx
+++ b/FIN.xlsx
@@ -605,277 +605,277 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AC Oulu,L L L L L L W L L D L W L L W W W D L D L L D L D L W L W</t>
-  </si>
-  <si>
-    <t>Haka,L L L W W L D L D L L D L W W L L L L W W W D D W W W</t>
-  </si>
-  <si>
-    <t>HIFK,W D D W L W W D L D L W D L W W W L L W D L L D D L L</t>
-  </si>
-  <si>
-    <t>HJK,W D W W W W W W W W W L W D W W W D W D L L L W W W D</t>
-  </si>
-  <si>
-    <t>Honka,L L W L L L W L L W D W D D W L W L W D L D D L L W W</t>
-  </si>
-  <si>
-    <t>Ilves,W L D W W L L L W D W L L W L L L W W W W D L L L L W</t>
-  </si>
-  <si>
-    <t>Inter Turku,W L W W W W W L W L D L W D L L W W L D W W W L L W L</t>
-  </si>
-  <si>
-    <t>KTP,D L W L L L L L D D L D D L L L L L L L L L L W L L L</t>
-  </si>
-  <si>
-    <t>KuPS,L D W W L L W W W W W W W D W W D W W W W D W W D D D</t>
-  </si>
-  <si>
-    <t>Lahti,W L L W W W D D D W W D D W D L L D L D W L W D D W L</t>
-  </si>
-  <si>
-    <t>Mariehamn,W W L L L L L L L D W D L L L L W L W W L W D W W L L</t>
+    <t>AC Oulu,L D L W L W</t>
+  </si>
+  <si>
+    <t>Haka,W D D W W W</t>
+  </si>
+  <si>
+    <t>HIFK,L L D D L L</t>
+  </si>
+  <si>
+    <t>HJK,L L W W W D</t>
+  </si>
+  <si>
+    <t>Honka,D D L L W W</t>
+  </si>
+  <si>
+    <t>Ilves,D L L L L W</t>
+  </si>
+  <si>
+    <t>Inter Turku,W W L L W L</t>
+  </si>
+  <si>
+    <t>KTP,L L W L L L</t>
+  </si>
+  <si>
+    <t>KuPS,D W W D D D</t>
+  </si>
+  <si>
+    <t>Lahti,L W D D W L</t>
+  </si>
+  <si>
+    <t>Mariehamn,W D W W L L</t>
   </si>
   <si>
     <t>Rovaniemi,W L</t>
   </si>
   <si>
-    <t>SJK,D D W L W L W L W W L W W D W W L L W D L W W D W D W</t>
-  </si>
-  <si>
-    <t>AC Oulu,0 1 0 1 1 0 3 0 0 1 0 2 2 0 1 2 1 1 1 0 0 0 0 1 0 1 2 1 2,(24)</t>
-  </si>
-  <si>
-    <t>Haka,0 1 0 3 2 1 1 1 1 0 0 0 0 1 2 0 0 1 0 4 1 2 0 1 2 4 2,(30)</t>
-  </si>
-  <si>
-    <t>HIFK,2 1 1 2 1 2 1 0 0 0 0 1 2 1 3 1 3 0 0 2 0 0 0 2 0 0 0,(25)</t>
-  </si>
-  <si>
-    <t>HJK,4 0 3 2 2 3 2 1 2 2 1 1 2 0 1 1 1 1 3 0 0 0 2 3 2 1 1,(41)</t>
-  </si>
-  <si>
-    <t>Honka,2 0 3 1 0 0 2 0 1 2 1 1 1 2 4 2 3 0 3 0 0 0 1 0 0 6 3,(38)</t>
-  </si>
-  <si>
-    <t>Ilves,2 0 1 3 2 1 0 1 2 1 1 0 0 1 1 0 0 1 1 1 2 0 1 2 2 0 3,(29)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 1 2 2 2 4 3 0 2 1 1 0 2 2 0 0 2 3 1 2 4 1 2 2 1 2 2,(45)</t>
-  </si>
-  <si>
-    <t>KTP,1 1 3 1 0 0 1 0 1 1 1 0 2 0 0 0 1 1 0 1 1 2 1 2 1 2 1,(25)</t>
-  </si>
-  <si>
-    <t>KuPS,0 0 4 2 2 1 1 1 2 2 2 1 1 2 4 5 1 1 3 2 1 0 2 3 0 2 1,(46)</t>
-  </si>
-  <si>
-    <t>Lahti,2 2 0 1 3 3 1 0 1 2 1 1 1 3 2 0 0 1 0 0 2 1 2 1 0 3 2,(35)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 3 0 0 0 0 0 0 0 0 3 1 0 0 0 1 1 0 2 3 0 4 1 2 5 0 0,(28)</t>
+    <t>SJK,W W D W D W</t>
+  </si>
+  <si>
+    <t>AC Oulu,1 0 1 2 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Haka,2 0 1 2 4 2,(11)</t>
+  </si>
+  <si>
+    <t>HIFK,0 0 2 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>HJK,0 2 3 2 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Honka,0 1 0 0 6 3,(10)</t>
+  </si>
+  <si>
+    <t>Ilves,0 1 2 2 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 2 2 1 2 2,(10)</t>
+  </si>
+  <si>
+    <t>KTP,2 1 2 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>KuPS,0 2 3 0 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Lahti,1 2 1 0 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Mariehamn,4 1 2 5 0 0,(12)</t>
   </si>
   <si>
     <t>Rovaniemi,2 0,(2)</t>
   </si>
   <si>
-    <t>SJK,1 1 2 0 1 0 1 0 1 3 1 1 3 0 3 4 0 0 1 2 0 4 3 2 4 2 5,(45)</t>
-  </si>
-  <si>
-    <t>AC Oulu,2 3 2 2 3 2 1 2 2 1 1 1 3 1 0 0 0 1 3 0 4 1 0 2 0 6 1 2 0,(46)</t>
-  </si>
-  <si>
-    <t>Haka,2 2 3 0 1 2 1 2 1 1 1 0 2 0 0 1 4 2 1 0 0 0 0 1 0 2 0,(29)</t>
-  </si>
-  <si>
-    <t>HIFK,0 1 1 1 4 0 0 0 1 0 1 0 2 5 0 0 1 1 3 0 0 2 2 2 0 1 3,(31)</t>
-  </si>
-  <si>
-    <t>HJK,2 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 1 0 2 1 3 2 1 0 1,(19)</t>
-  </si>
-  <si>
-    <t>Honka,4 2 1 2 1 1 0 1 2 1 1 0 1 2 1 3 1 3 1 0 1 0 1 2 2 1 2,(37)</t>
-  </si>
-  <si>
-    <t>Ilves,0 3 1 2 0 3 1 2 1 1 0 1 1 0 4 2 1 0 0 0 0 0 2 3 4 2 0,(34)</t>
-  </si>
-  <si>
-    <t>Inter Turku,0 2 1 1 1 1 0 1 0 2 1 1 0 2 1 2 0 1 3 2 0 0 0 3 2 0 5,(32)</t>
-  </si>
-  <si>
-    <t>KTP,1 3 0 2 2 2 3 2 1 1 3 0 2 3 1 4 3 3 1 2 2 4 2 0 5 4 2,(58)</t>
-  </si>
-  <si>
-    <t>KuPS,1 0 2 0 3 2 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 1 2 0 2 1,(20)</t>
-  </si>
-  <si>
-    <t>Lahti,1 4 2 0 0 1 1 0 1 1 0 1 1 0 2 2 1 1 1 0 1 4 1 1 0 0 3,(30)</t>
-  </si>
-  <si>
-    <t>Mariehamn,0 1 2 3 3 3 1 1 3 0 1 1 2 1 1 3 0 1 1 0 2 2 1 1 1 3 2,(40)</t>
+    <t>SJK,4 3 2 4 2 5,(20)</t>
+  </si>
+  <si>
+    <t>AC Oulu,2 0 6 1 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Haka,0 0 1 0 2 0,(3)</t>
+  </si>
+  <si>
+    <t>HIFK,2 2 2 0 1 3,(10)</t>
+  </si>
+  <si>
+    <t>HJK,1 3 2 1 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Honka,0 1 2 2 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Ilves,0 2 3 4 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Inter Turku,0 0 3 2 0 5,(10)</t>
+  </si>
+  <si>
+    <t>KTP,4 2 0 5 4 2,(17)</t>
+  </si>
+  <si>
+    <t>KuPS,0 1 2 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Lahti,4 1 1 0 0 3,(9)</t>
+  </si>
+  <si>
+    <t>Mariehamn,2 1 1 1 3 2,(10)</t>
   </si>
   <si>
     <t>Rovaniemi,1 2,(3)</t>
   </si>
   <si>
-    <t>SJK,1 1 0 2 0 1 0 2 0 0 2 0 2 0 2 0 1 3 0 2 4 1 2 2 2 2 2,(34)</t>
-  </si>
-  <si>
-    <t>AC Oulu,2 4 2 3 4 2 4 2 2 2 1 3 5 1 1 2 1 2 4 0 4 1 0 3 0 7 3 3 2,(70)</t>
-  </si>
-  <si>
-    <t>Haka,2 3 3 3 3 3 2 3 2 1 1 0 2 1 2 1 4 3 1 4 1 2 0 2 2 6 2,(59)</t>
-  </si>
-  <si>
-    <t>HIFK,2 2 2 3 5 2 1 0 1 0 1 1 4 6 3 1 4 1 3 2 0 2 2 4 0 1 3,(56)</t>
-  </si>
-  <si>
-    <t>HJK,6 0 3 2 2 4 3 1 3 2 1 3 2 0 1 1 1 2 4 0 2 1 5 5 3 1 2,(60)</t>
-  </si>
-  <si>
-    <t>Honka,6 2 4 3 1 1 2 1 3 3 2 1 2 4 5 5 4 3 4 0 1 0 2 2 2 7 5,(75)</t>
-  </si>
-  <si>
-    <t>Ilves,2 3 2 5 2 4 1 3 3 2 1 1 1 1 5 2 1 1 1 1 2 0 3 5 6 2 3,(63)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 3 3 3 3 5 3 1 2 3 2 1 2 4 1 2 2 4 4 4 4 1 2 5 3 2 7,(77)</t>
-  </si>
-  <si>
-    <t>KTP,2 4 3 3 2 2 4 2 2 2 4 0 4 3 1 4 4 4 1 3 3 6 3 2 6 6 3,(83)</t>
-  </si>
-  <si>
-    <t>KuPS,1 0 6 2 5 3 1 1 3 2 2 1 1 4 4 6 2 1 3 3 1 0 3 5 0 4 2,(66)</t>
-  </si>
-  <si>
-    <t>Lahti,3 6 2 1 3 4 2 0 2 3 1 2 2 3 4 2 1 2 1 0 3 5 3 2 0 3 5,(65)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 4 2 3 3 3 1 1 3 0 4 2 2 1 1 4 1 1 3 3 2 6 2 3 6 3 2,(68)</t>
+    <t>SJK,1 2 2 2 2 2,(11)</t>
+  </si>
+  <si>
+    <t>AC Oulu,3 0 7 3 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Haka,2 0 2 2 6 2,(14)</t>
+  </si>
+  <si>
+    <t>HIFK,2 2 4 0 1 3,(12)</t>
+  </si>
+  <si>
+    <t>HJK,1 5 5 3 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Honka,0 2 2 2 7 5,(18)</t>
+  </si>
+  <si>
+    <t>Ilves,0 3 5 6 2 3,(19)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 2 5 3 2 7,(20)</t>
+  </si>
+  <si>
+    <t>KTP,6 3 2 6 6 3,(26)</t>
+  </si>
+  <si>
+    <t>KuPS,0 3 5 0 4 2,(14)</t>
+  </si>
+  <si>
+    <t>Lahti,5 3 2 0 3 5,(18)</t>
+  </si>
+  <si>
+    <t>Mariehamn,6 2 3 6 3 2,(22)</t>
   </si>
   <si>
     <t>Rovaniemi,3 2,(5)</t>
   </si>
   <si>
-    <t>SJK,2 2 2 2 1 1 1 2 1 3 3 1 5 0 5 4 1 3 1 4 4 5 5 4 6 4 7,(79)</t>
-  </si>
-  <si>
-    <t>AC Oulu,0-2 3-1 0-2 1-2 3-1 0-2 1-3 0-2 2-0 1-1 1-0 2-1 3-2 1-0 1-0 2-0 0-1 1-1 3-1 0-0 4-0 0-1 0-0 1-2 0-0 6-1 2-1 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Haka,2-0 2-1 0-3 0-3 1-2 1-2 1-1 2-1 1-1 1-0 0-1 0-0 2-0 1-0 0-2 0-1 4-0 1-2 0-1 4-0 0-1 2-0 0-0 1-1 0-2 2-4 2-0</t>
-  </si>
-  <si>
-    <t>HIFK,2-0 1-1 1-1 1-2 1-4 0-2 1-0 0-0 0-1 0-0 0-1 0-1 2-2 1-5 0-3 1-0 3-1 1-0 0-3 0-2 0-0 2-0 2-0 2-2 0-0 1-0 0-3</t>
-  </si>
-  <si>
-    <t>HJK,4-2 0-0 0-3 2-0 0-2 3-1 1-2 0-1 2-1 2-0 0-1 2-1 2-0 0-0 0-1 1-0 0-1 1-1 1-3 0-0 0-2 0-1 2-3 2-3 2-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Honka,4-2 0-2 1-3 1-2 1-0 0-1 0-2 1-0 2-1 2-1 1-1 1-0 1-1 2-2 4-1 3-2 1-3 0-3 3-1 0-0 0-1 0-0 1-1 2-0 0-2 6-1 2-3</t>
-  </si>
-  <si>
-    <t>Ilves,0-2 0-3 1-1 3-2 2-0 3-1 1-0 2-1 2-1 1-1 1-0 0-1 1-0 1-0 4-1 2-0 1-0 1-0 1-0 0-1 2-0 0-0 2-1 2-3 4-2 0-2 0-3</t>
-  </si>
-  <si>
-    <t>Inter Turku,1-0 2-1 2-1 1-2 2-1 1-4 3-0 1-0 2-0 2-1 1-1 0-1 0-2 2-2 1-0 2-0 2-0 1-3 1-3 2-2 4-0 0-1 2-0 2-3 2-1 0-2 2-5</t>
-  </si>
-  <si>
-    <t>KTP,1-1 1-3 0-3 2-1 2-0 0-2 1-3 2-0 1-1 1-1 1-3 0-0 2-2 3-0 0-1 4-0 1-3 3-1 0-1 1-2 1-2 4-2 2-1 2-0 5-1 2-4 2-1</t>
-  </si>
-  <si>
-    <t>KuPS,1-0 0-0 2-4 2-0 3-2 1-2 0-1 1-0 2-1 0-2 2-0 0-1 1-0 2-2 4-0 1-5 1-1 0-1 3-0 1-2 0-1 0-0 2-1 2-3 0-0 2-2 1-1</t>
-  </si>
-  <si>
-    <t>Lahti,2-1 2-4 2-0 1-0 0-3 3-1 1-1 0-0 1-1 2-1 0-1 1-1 1-1 3-0 2-2 0-2 0-1 1-1 1-0 0-0 1-2 4-1 2-1 1-1 0-0 0-3 2-3</t>
-  </si>
-  <si>
-    <t>Mariehamn,0-2 3-1 2-0 0-3 0-3 3-0 0-1 0-1 3-0 0-0 1-3 1-1 0-2 1-0 1-0 1-3 1-0 0-1 1-2 0-3 2-0 4-2 1-1 1-2 5-1 0-3 2-0</t>
+    <t>SJK,5 5 4 6 4 7,(31)</t>
+  </si>
+  <si>
+    <t>AC Oulu,1-2 0-0 6-1 2-1 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Haka,2-0 0-0 1-1 0-2 2-4 2-0</t>
+  </si>
+  <si>
+    <t>HIFK,2-0 2-0 2-2 0-0 1-0 0-3</t>
+  </si>
+  <si>
+    <t>HJK,0-1 2-3 2-3 2-1 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Honka,0-0 1-1 2-0 0-2 6-1 2-3</t>
+  </si>
+  <si>
+    <t>Ilves,0-0 2-1 2-3 4-2 0-2 0-3</t>
+  </si>
+  <si>
+    <t>Inter Turku,0-1 2-0 2-3 2-1 0-2 2-5</t>
+  </si>
+  <si>
+    <t>KTP,4-2 2-1 2-0 5-1 2-4 2-1</t>
+  </si>
+  <si>
+    <t>KuPS,0-0 2-1 2-3 0-0 2-2 1-1</t>
+  </si>
+  <si>
+    <t>Lahti,4-1 2-1 1-1 0-0 0-3 2-3</t>
+  </si>
+  <si>
+    <t>Mariehamn,4-2 1-1 1-2 5-1 0-3 2-0</t>
   </si>
   <si>
     <t>Rovaniemi,2-1 2-0</t>
   </si>
   <si>
-    <t>SJK,1-1 1-1 0-2 0-2 0-1 0-1 1-0 2-0 0-1 3-0 2-1 0-1 3-2 0-0 3-2 4-0 1-0 3-0 0-1 2-2 4-0 4-1 2-3 2-2 4-2 2-2 2-5</t>
-  </si>
-  <si>
-    <t>AC Oulu,-2 -2 -2 -1 -2 -2 2 -2 -2 0 -1 1 -1 -1 1 2 1 0 -2 0 -4 -1 0 -1 0 -5 1 -1 2,(-22)</t>
-  </si>
-  <si>
-    <t>Haka,-2 -1 -3 3 1 -1 0 -1 0 -1 -1 0 -2 1 2 -1 -4 -1 -1 4 1 2 0 0 2 2 2,(1)</t>
-  </si>
-  <si>
-    <t>HIFK,2 0 0 1 -3 2 1 0 -1 0 -1 1 0 -4 3 1 2 -1 -3 2 0 -2 -2 0 0 -1 -3,(-6)</t>
-  </si>
-  <si>
-    <t>HJK,2 0 3 2 2 2 1 1 1 2 1 -1 2 0 1 1 1 0 2 0 -2 -1 -1 1 1 1 0,(22)</t>
-  </si>
-  <si>
-    <t>Honka,-2 -2 2 -1 -1 -1 2 -1 -1 1 0 1 0 0 3 -1 2 -3 2 0 -1 0 0 -2 -2 5 1,(1)</t>
-  </si>
-  <si>
-    <t>Ilves,2 -3 0 1 2 -2 -1 -1 1 0 1 -1 -1 1 -3 -2 -1 1 1 1 2 0 -1 -1 -2 -2 3,(-5)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 -1 1 1 1 3 3 -1 2 -1 0 -1 2 0 -1 -2 2 2 -2 0 4 1 2 -1 -1 2 -3,(13)</t>
-  </si>
-  <si>
-    <t>KTP,0 -2 3 -1 -2 -2 -2 -2 0 0 -2 0 0 -3 -1 -4 -2 -2 -1 -1 -1 -2 -1 2 -4 -2 -1,(-33)</t>
-  </si>
-  <si>
-    <t>KuPS,-1 0 2 2 -1 -1 1 1 1 2 2 1 1 0 4 4 0 1 3 1 1 0 1 1 0 0 0,(26)</t>
-  </si>
-  <si>
-    <t>Lahti,1 -2 -2 1 3 2 0 0 0 1 1 0 0 3 0 -2 -1 0 -1 0 1 -3 1 0 0 3 -1,(5)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 2 -2 -3 -3 -3 -1 -1 -3 0 2 0 -2 -1 -1 -2 1 -1 1 3 -2 2 0 1 4 -3 -2,(-12)</t>
+    <t>SJK,4-1 2-3 2-2 4-2 2-2 2-5</t>
+  </si>
+  <si>
+    <t>AC Oulu,-1 0 -5 1 -1 2,(-4)</t>
+  </si>
+  <si>
+    <t>Haka,2 0 0 2 2 2,(8)</t>
+  </si>
+  <si>
+    <t>HIFK,-2 -2 0 0 -1 -3,(-8)</t>
+  </si>
+  <si>
+    <t>HJK,-1 -1 1 1 1 0,(1)</t>
+  </si>
+  <si>
+    <t>Honka,0 0 -2 -2 5 1,(2)</t>
+  </si>
+  <si>
+    <t>Ilves,0 -1 -1 -2 -2 3,(-3)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 2 -1 -1 2 -3,(0)</t>
+  </si>
+  <si>
+    <t>KTP,-2 -1 2 -4 -2 -1,(-8)</t>
+  </si>
+  <si>
+    <t>KuPS,0 1 1 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Lahti,-3 1 0 0 3 -1,(0)</t>
+  </si>
+  <si>
+    <t>Mariehamn,2 0 1 4 -3 -2,(2)</t>
   </si>
   <si>
     <t>Rovaniemi,1 -2,(-1)</t>
   </si>
   <si>
-    <t>SJK,0 0 2 -2 1 -1 1 -2 1 3 -1 1 1 0 1 4 -1 -3 1 0 -4 3 1 0 2 0 3,(11)</t>
-  </si>
-  <si>
-    <t>AC Oulu,Ilves(6) Mariehamn(10) SJK(3) HIFK(8) HJK(1) Honka(9) KTP(12) KuPS(2) KuPS(2) KTP(12) Honka(9) HJK(1) SJK(3) Ilves(6) Mariehamn(10) Inter Turku(4) Haka(7) Lahti(5) HIFK(8) Lahti(5) Inter Turku(4) Haka(7) Haka(7) Mariehamn(10) Lahti(5) Honka(9) KTP(12) Rovaniemi(13) Rovaniemi(13)</t>
-  </si>
-  <si>
-    <t>Haka,HIFK(8) Inter Turku(4) KTP(12) Mariehamn(10) KuPS(2) HJK(1) Lahti(5) Honka(9) Honka(9) Ilves(6) KuPS(2) KTP(12) HJK(1) Inter Turku(4) Lahti(5) AC Oulu(11) SJK(3) Mariehamn(10) Ilves(6) SJK(3) AC Oulu(11) HIFK(8) AC Oulu(11) Lahti(5) Honka(9) KTP(12) Mariehamn(10)</t>
-  </si>
-  <si>
-    <t>HIFK,Haka(7) SJK(3) Ilves(6) AC Oulu(11) Inter Turku(4) KTP(12) Honka(9) Lahti(5) HJK(1) Mariehamn(10) Lahti(5) Inter Turku(4) KTP(12) KuPS(2) Honka(9) SJK(3) AC Oulu(11) Ilves(6) Mariehamn(10) HJK(1) KuPS(2) Haka(7) Inter Turku(4) SJK(3) KuPS(2) HJK(1) Ilves(6)</t>
-  </si>
-  <si>
-    <t>HJK,Honka(9) KuPS(2) Ilves(6) Lahti(5) SJK(3) AC Oulu(11) Haka(7) Mariehamn(10) Ilves(6) KTP(12) HIFK(8) AC Oulu(11) Haka(7) SJK(3) KTP(12) Mariehamn(10) Lahti(5) KuPS(2) Inter Turku(4) Honka(9) HIFK(8) Inter Turku(4) SJK(3) Ilves(6) Inter Turku(4) HIFK(8) KuPS(2)</t>
-  </si>
-  <si>
-    <t>Honka,HJK(1) Mariehamn(10) KTP(12) Inter Turku(4) Lahti(5) SJK(3) AC Oulu(11) HIFK(8) KuPS(2) Haka(7) Haka(7) AC Oulu(11) Lahti(5) Inter Turku(4) Ilves(6) SJK(3) Mariehamn(10) HIFK(8) KTP(12) HJK(1) KuPS(2) Ilves(6) Mariehamn(10) KTP(12) Haka(7) AC Oulu(11) Lahti(5)</t>
-  </si>
-  <si>
-    <t>Ilves,AC Oulu(11) HJK(1) HIFK(8) KuPS(2) KTP(12) Lahti(5) SJK(3) HJK(1) Inter Turku(4) KTP(12) Haka(7) SJK(3) KuPS(2) AC Oulu(11) Honka(9) Inter Turku(4) Mariehamn(10) Lahti(5) HIFK(8) Haka(7) Mariehamn(10) Honka(9) KuPS(2) HJK(1) SJK(3) Inter Turku(4) HIFK(8)</t>
-  </si>
-  <si>
-    <t>Inter Turku,KuPS(2) Lahti(5) Haka(7) Honka(9) KTP(12) HIFK(8) Mariehamn(10) KuPS(2) SJK(3) Ilves(6) Lahti(5) HIFK(8) Mariehamn(10) Honka(9) Haka(7) AC Oulu(11) Ilves(6) KTP(12) HJK(1) SJK(3) AC Oulu(11) HJK(1) HIFK(8) KuPS(2) HJK(1) Ilves(6) SJK(3)</t>
-  </si>
-  <si>
-    <t>KTP,SJK(3) Honka(9) Haka(7) Inter Turku(4) Ilves(6) HIFK(8) AC Oulu(11) HJK(1) Ilves(6) AC Oulu(11) Mariehamn(10) Haka(7) HIFK(8) Lahti(5) HJK(1) KuPS(2) Inter Turku(4) Honka(9) SJK(3) KuPS(2) Lahti(5) Mariehamn(10) Lahti(5) Honka(9) Mariehamn(10) Haka(7) AC Oulu(11)</t>
-  </si>
-  <si>
-    <t>KuPS,Inter Turku(4) HJK(1) Lahti(5) Mariehamn(10) Ilves(6) Haka(7) SJK(3) Inter Turku(4) Honka(9) AC Oulu(11) AC Oulu(11) Haka(7) Ilves(6) Lahti(5) KTP(12) HIFK(8) HJK(1) Mariehamn(10) SJK(3) KTP(12) Honka(9) HIFK(8) Ilves(6) Inter Turku(4) HIFK(8) SJK(3) HJK(1)</t>
-  </si>
-  <si>
-    <t>Lahti,Inter Turku(4) KuPS(2) HJK(1) Honka(9) Mariehamn(10) Ilves(6) Haka(7) HIFK(8) Inter Turku(4) SJK(3) HIFK(8) Mariehamn(10) Honka(9) KTP(12) KuPS(2) Haka(7) HJK(1) AC Oulu(11) Ilves(6) AC Oulu(11) KTP(12) SJK(3) KTP(12) Haka(7) AC Oulu(11) Mariehamn(10) Honka(9)</t>
-  </si>
-  <si>
-    <t>Mariehamn,Honka(9) AC Oulu(11) KuPS(2) Haka(7) Lahti(5) Inter Turku(4) HJK(1) SJK(3) SJK(3) HIFK(8) KTP(12) Lahti(5) Inter Turku(4) AC Oulu(11) HJK(1) Honka(9) Ilves(6) KuPS(2) Haka(7) HIFK(8) Ilves(6) KTP(12) Honka(9) AC Oulu(11) KTP(12) Lahti(5) Haka(7)</t>
+    <t>SJK,3 1 0 2 0 3,(9)</t>
+  </si>
+  <si>
+    <t>AC Oulu,Mariehamn(10) Lahti(5) Honka(9) KTP(12) Rovaniemi(13) Rovaniemi(13)</t>
+  </si>
+  <si>
+    <t>Haka,HIFK(8) AC Oulu(11) Lahti(5) Honka(9) KTP(12) Mariehamn(10)</t>
+  </si>
+  <si>
+    <t>HIFK,Haka(7) Inter Turku(4) SJK(3) KuPS(2) HJK(1) Ilves(6)</t>
+  </si>
+  <si>
+    <t>HJK,Inter Turku(4) SJK(3) Ilves(6) Inter Turku(4) HIFK(8) KuPS(2)</t>
+  </si>
+  <si>
+    <t>Honka,Ilves(6) Mariehamn(10) KTP(12) Haka(7) AC Oulu(11) Lahti(5)</t>
+  </si>
+  <si>
+    <t>Ilves,Honka(9) KuPS(2) HJK(1) SJK(3) Inter Turku(4) HIFK(8)</t>
+  </si>
+  <si>
+    <t>Inter Turku,HJK(1) HIFK(8) KuPS(2) HJK(1) Ilves(6) SJK(3)</t>
+  </si>
+  <si>
+    <t>KTP,Mariehamn(10) Lahti(5) Honka(9) Mariehamn(10) Haka(7) AC Oulu(11)</t>
+  </si>
+  <si>
+    <t>KuPS,HIFK(8) Ilves(6) Inter Turku(4) HIFK(8) SJK(3) HJK(1)</t>
+  </si>
+  <si>
+    <t>Lahti,SJK(3) KTP(12) Haka(7) AC Oulu(11) Mariehamn(10) Honka(9)</t>
+  </si>
+  <si>
+    <t>Mariehamn,KTP(12) Honka(9) AC Oulu(11) KTP(12) Lahti(5) Haka(7)</t>
   </si>
   <si>
     <t>Rovaniemi,AC Oulu(11) AC Oulu(11)</t>
   </si>
   <si>
-    <t>SJK,KTP(12) HIFK(8) AC Oulu(11) HJK(1) Honka(9) KuPS(2) Ilves(6) Inter Turku(4) Mariehamn(10) Mariehamn(10) Lahti(5) Ilves(6) AC Oulu(11) HJK(1) Honka(9) Haka(7) HIFK(8) KuPS(2) KTP(12) Inter Turku(4) Haka(7) Lahti(5) HJK(1) HIFK(8) Ilves(6) KuPS(2) Inter Turku(4)</t>
+    <t>SJK,Lahti(5) HJK(1) HIFK(8) Ilves(6) KuPS(2) Inter Turku(4)</t>
   </si>
   <si>
     <t>fin_division</t>

--- a/FIN.xlsx
+++ b/FIN.xlsx
@@ -605,277 +605,277 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AC Oulu,L D L W L W</t>
-  </si>
-  <si>
-    <t>Haka,W D D W W W</t>
-  </si>
-  <si>
-    <t>HIFK,L L D D L L</t>
-  </si>
-  <si>
-    <t>HJK,L L W W W D</t>
-  </si>
-  <si>
-    <t>Honka,D D L L W W</t>
-  </si>
-  <si>
-    <t>Ilves,D L L L L W</t>
-  </si>
-  <si>
-    <t>Inter Turku,W W L L W L</t>
-  </si>
-  <si>
-    <t>KTP,L L W L L L</t>
-  </si>
-  <si>
-    <t>KuPS,D W W D D D</t>
-  </si>
-  <si>
-    <t>Lahti,L W D D W L</t>
-  </si>
-  <si>
-    <t>Mariehamn,W D W W L L</t>
+    <t>AC Oulu,L L L L L L W L L D L W L L W W W D L D L L D L D L W L W</t>
+  </si>
+  <si>
+    <t>Haka,L L L W W L D L D L L D L W W L L L L W W W D D W W W</t>
+  </si>
+  <si>
+    <t>HIFK,W D D W L W W D L D L W D L W W W L L W D L L D D L L</t>
+  </si>
+  <si>
+    <t>HJK,W D W W W W W W W W W L W D W W W D W D L L L W W W D</t>
+  </si>
+  <si>
+    <t>Honka,L L W L L L W L L W D W D D W L W L W D L D D L L W W</t>
+  </si>
+  <si>
+    <t>Ilves,W L D W W L L L W D W L L W L L L W W W W D L L L L W</t>
+  </si>
+  <si>
+    <t>Inter Turku,W L W W W W W L W L D L W D L L W W L D W W W L L W L</t>
+  </si>
+  <si>
+    <t>KTP,D L W L L L L L D D L D D L L L L L L L L L L W L L L</t>
+  </si>
+  <si>
+    <t>KuPS,L D W W L L W W W W W W W D W W D W W W W D W W D D D</t>
+  </si>
+  <si>
+    <t>Lahti,W L L W W W D D D W W D D W D L L D L D W L W D D W L</t>
+  </si>
+  <si>
+    <t>Mariehamn,W W L L L L L L L D W D L L L L W L W W L W D W W L L</t>
   </si>
   <si>
     <t>Rovaniemi,W L</t>
   </si>
   <si>
-    <t>SJK,W W D W D W</t>
-  </si>
-  <si>
-    <t>AC Oulu,1 0 1 2 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Haka,2 0 1 2 4 2,(11)</t>
-  </si>
-  <si>
-    <t>HIFK,0 0 2 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>HJK,0 2 3 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Honka,0 1 0 0 6 3,(10)</t>
-  </si>
-  <si>
-    <t>Ilves,0 1 2 2 0 3,(8)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 2 2 1 2 2,(10)</t>
-  </si>
-  <si>
-    <t>KTP,2 1 2 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>KuPS,0 2 3 0 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Lahti,1 2 1 0 3 2,(9)</t>
-  </si>
-  <si>
-    <t>Mariehamn,4 1 2 5 0 0,(12)</t>
+    <t>SJK,D D W L W L W L W W L W W D W W L L W D L W W D W D W</t>
+  </si>
+  <si>
+    <t>AC Oulu,0 1 0 1 1 0 3 0 0 1 0 2 2 0 1 2 1 1 1 0 0 0 0 1 0 1 2 1 2,(24)</t>
+  </si>
+  <si>
+    <t>Haka,0 1 0 3 2 1 1 1 1 0 0 0 0 1 2 0 0 1 0 4 1 2 0 1 2 4 2,(30)</t>
+  </si>
+  <si>
+    <t>HIFK,2 1 1 2 1 2 1 0 0 0 0 1 2 1 3 1 3 0 0 2 0 0 0 2 0 0 0,(25)</t>
+  </si>
+  <si>
+    <t>HJK,4 0 3 2 2 3 2 1 2 2 1 1 2 0 1 1 1 1 3 0 0 0 2 3 2 1 1,(41)</t>
+  </si>
+  <si>
+    <t>Honka,2 0 3 1 0 0 2 0 1 2 1 1 1 2 4 2 3 0 3 0 0 0 1 0 0 6 3,(38)</t>
+  </si>
+  <si>
+    <t>Ilves,2 0 1 3 2 1 0 1 2 1 1 0 0 1 1 0 0 1 1 1 2 0 1 2 2 0 3,(29)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 1 2 2 2 4 3 0 2 1 1 0 2 2 0 0 2 3 1 2 4 1 2 2 1 2 2,(45)</t>
+  </si>
+  <si>
+    <t>KTP,1 1 3 1 0 0 1 0 1 1 1 0 2 0 0 0 1 1 0 1 1 2 1 2 1 2 1,(25)</t>
+  </si>
+  <si>
+    <t>KuPS,0 0 4 2 2 1 1 1 2 2 2 1 1 2 4 5 1 1 3 2 1 0 2 3 0 2 1,(46)</t>
+  </si>
+  <si>
+    <t>Lahti,2 2 0 1 3 3 1 0 1 2 1 1 1 3 2 0 0 1 0 0 2 1 2 1 0 3 2,(35)</t>
+  </si>
+  <si>
+    <t>Mariehamn,2 3 0 0 0 0 0 0 0 0 3 1 0 0 0 1 1 0 2 3 0 4 1 2 5 0 0,(28)</t>
   </si>
   <si>
     <t>Rovaniemi,2 0,(2)</t>
   </si>
   <si>
-    <t>SJK,4 3 2 4 2 5,(20)</t>
-  </si>
-  <si>
-    <t>AC Oulu,2 0 6 1 2 0,(11)</t>
-  </si>
-  <si>
-    <t>Haka,0 0 1 0 2 0,(3)</t>
-  </si>
-  <si>
-    <t>HIFK,2 2 2 0 1 3,(10)</t>
-  </si>
-  <si>
-    <t>HJK,1 3 2 1 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Honka,0 1 2 2 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Ilves,0 2 3 4 2 0,(11)</t>
-  </si>
-  <si>
-    <t>Inter Turku,0 0 3 2 0 5,(10)</t>
-  </si>
-  <si>
-    <t>KTP,4 2 0 5 4 2,(17)</t>
-  </si>
-  <si>
-    <t>KuPS,0 1 2 0 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Lahti,4 1 1 0 0 3,(9)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 1 1 1 3 2,(10)</t>
+    <t>SJK,1 1 2 0 1 0 1 0 1 3 1 1 3 0 3 4 0 0 1 2 0 4 3 2 4 2 5,(45)</t>
+  </si>
+  <si>
+    <t>AC Oulu,2 3 2 2 3 2 1 2 2 1 1 1 3 1 0 0 0 1 3 0 4 1 0 2 0 6 1 2 0,(46)</t>
+  </si>
+  <si>
+    <t>Haka,2 2 3 0 1 2 1 2 1 1 1 0 2 0 0 1 4 2 1 0 0 0 0 1 0 2 0,(29)</t>
+  </si>
+  <si>
+    <t>HIFK,0 1 1 1 4 0 0 0 1 0 1 0 2 5 0 0 1 1 3 0 0 2 2 2 0 1 3,(31)</t>
+  </si>
+  <si>
+    <t>HJK,2 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 1 0 2 1 3 2 1 0 1,(19)</t>
+  </si>
+  <si>
+    <t>Honka,4 2 1 2 1 1 0 1 2 1 1 0 1 2 1 3 1 3 1 0 1 0 1 2 2 1 2,(37)</t>
+  </si>
+  <si>
+    <t>Ilves,0 3 1 2 0 3 1 2 1 1 0 1 1 0 4 2 1 0 0 0 0 0 2 3 4 2 0,(34)</t>
+  </si>
+  <si>
+    <t>Inter Turku,0 2 1 1 1 1 0 1 0 2 1 1 0 2 1 2 0 1 3 2 0 0 0 3 2 0 5,(32)</t>
+  </si>
+  <si>
+    <t>KTP,1 3 0 2 2 2 3 2 1 1 3 0 2 3 1 4 3 3 1 2 2 4 2 0 5 4 2,(58)</t>
+  </si>
+  <si>
+    <t>KuPS,1 0 2 0 3 2 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 1 2 0 2 1,(20)</t>
+  </si>
+  <si>
+    <t>Lahti,1 4 2 0 0 1 1 0 1 1 0 1 1 0 2 2 1 1 1 0 1 4 1 1 0 0 3,(30)</t>
+  </si>
+  <si>
+    <t>Mariehamn,0 1 2 3 3 3 1 1 3 0 1 1 2 1 1 3 0 1 1 0 2 2 1 1 1 3 2,(40)</t>
   </si>
   <si>
     <t>Rovaniemi,1 2,(3)</t>
   </si>
   <si>
-    <t>SJK,1 2 2 2 2 2,(11)</t>
-  </si>
-  <si>
-    <t>AC Oulu,3 0 7 3 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Haka,2 0 2 2 6 2,(14)</t>
-  </si>
-  <si>
-    <t>HIFK,2 2 4 0 1 3,(12)</t>
-  </si>
-  <si>
-    <t>HJK,1 5 5 3 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Honka,0 2 2 2 7 5,(18)</t>
-  </si>
-  <si>
-    <t>Ilves,0 3 5 6 2 3,(19)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 2 5 3 2 7,(20)</t>
-  </si>
-  <si>
-    <t>KTP,6 3 2 6 6 3,(26)</t>
-  </si>
-  <si>
-    <t>KuPS,0 3 5 0 4 2,(14)</t>
-  </si>
-  <si>
-    <t>Lahti,5 3 2 0 3 5,(18)</t>
-  </si>
-  <si>
-    <t>Mariehamn,6 2 3 6 3 2,(22)</t>
+    <t>SJK,1 1 0 2 0 1 0 2 0 0 2 0 2 0 2 0 1 3 0 2 4 1 2 2 2 2 2,(34)</t>
+  </si>
+  <si>
+    <t>AC Oulu,2 4 2 3 4 2 4 2 2 2 1 3 5 1 1 2 1 2 4 0 4 1 0 3 0 7 3 3 2,(70)</t>
+  </si>
+  <si>
+    <t>Haka,2 3 3 3 3 3 2 3 2 1 1 0 2 1 2 1 4 3 1 4 1 2 0 2 2 6 2,(59)</t>
+  </si>
+  <si>
+    <t>HIFK,2 2 2 3 5 2 1 0 1 0 1 1 4 6 3 1 4 1 3 2 0 2 2 4 0 1 3,(56)</t>
+  </si>
+  <si>
+    <t>HJK,6 0 3 2 2 4 3 1 3 2 1 3 2 0 1 1 1 2 4 0 2 1 5 5 3 1 2,(60)</t>
+  </si>
+  <si>
+    <t>Honka,6 2 4 3 1 1 2 1 3 3 2 1 2 4 5 5 4 3 4 0 1 0 2 2 2 7 5,(75)</t>
+  </si>
+  <si>
+    <t>Ilves,2 3 2 5 2 4 1 3 3 2 1 1 1 1 5 2 1 1 1 1 2 0 3 5 6 2 3,(63)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 3 3 3 3 5 3 1 2 3 2 1 2 4 1 2 2 4 4 4 4 1 2 5 3 2 7,(77)</t>
+  </si>
+  <si>
+    <t>KTP,2 4 3 3 2 2 4 2 2 2 4 0 4 3 1 4 4 4 1 3 3 6 3 2 6 6 3,(83)</t>
+  </si>
+  <si>
+    <t>KuPS,1 0 6 2 5 3 1 1 3 2 2 1 1 4 4 6 2 1 3 3 1 0 3 5 0 4 2,(66)</t>
+  </si>
+  <si>
+    <t>Lahti,3 6 2 1 3 4 2 0 2 3 1 2 2 3 4 2 1 2 1 0 3 5 3 2 0 3 5,(65)</t>
+  </si>
+  <si>
+    <t>Mariehamn,2 4 2 3 3 3 1 1 3 0 4 2 2 1 1 4 1 1 3 3 2 6 2 3 6 3 2,(68)</t>
   </si>
   <si>
     <t>Rovaniemi,3 2,(5)</t>
   </si>
   <si>
-    <t>SJK,5 5 4 6 4 7,(31)</t>
-  </si>
-  <si>
-    <t>AC Oulu,1-2 0-0 6-1 2-1 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Haka,2-0 0-0 1-1 0-2 2-4 2-0</t>
-  </si>
-  <si>
-    <t>HIFK,2-0 2-0 2-2 0-0 1-0 0-3</t>
-  </si>
-  <si>
-    <t>HJK,0-1 2-3 2-3 2-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Honka,0-0 1-1 2-0 0-2 6-1 2-3</t>
-  </si>
-  <si>
-    <t>Ilves,0-0 2-1 2-3 4-2 0-2 0-3</t>
-  </si>
-  <si>
-    <t>Inter Turku,0-1 2-0 2-3 2-1 0-2 2-5</t>
-  </si>
-  <si>
-    <t>KTP,4-2 2-1 2-0 5-1 2-4 2-1</t>
-  </si>
-  <si>
-    <t>KuPS,0-0 2-1 2-3 0-0 2-2 1-1</t>
-  </si>
-  <si>
-    <t>Lahti,4-1 2-1 1-1 0-0 0-3 2-3</t>
-  </si>
-  <si>
-    <t>Mariehamn,4-2 1-1 1-2 5-1 0-3 2-0</t>
+    <t>SJK,2 2 2 2 1 1 1 2 1 3 3 1 5 0 5 4 1 3 1 4 4 5 5 4 6 4 7,(79)</t>
+  </si>
+  <si>
+    <t>AC Oulu,0-2 3-1 0-2 1-2 3-1 0-2 1-3 0-2 2-0 1-1 1-0 2-1 3-2 1-0 1-0 2-0 0-1 1-1 3-1 0-0 4-0 0-1 0-0 1-2 0-0 6-1 2-1 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Haka,2-0 2-1 0-3 0-3 1-2 1-2 1-1 2-1 1-1 1-0 0-1 0-0 2-0 1-0 0-2 0-1 4-0 1-2 0-1 4-0 0-1 2-0 0-0 1-1 0-2 2-4 2-0</t>
+  </si>
+  <si>
+    <t>HIFK,2-0 1-1 1-1 1-2 1-4 0-2 1-0 0-0 0-1 0-0 0-1 0-1 2-2 1-5 0-3 1-0 3-1 1-0 0-3 0-2 0-0 2-0 2-0 2-2 0-0 1-0 0-3</t>
+  </si>
+  <si>
+    <t>HJK,4-2 0-0 0-3 2-0 0-2 3-1 1-2 0-1 2-1 2-0 0-1 2-1 2-0 0-0 0-1 1-0 0-1 1-1 1-3 0-0 0-2 0-1 2-3 2-3 2-1 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Honka,4-2 0-2 1-3 1-2 1-0 0-1 0-2 1-0 2-1 2-1 1-1 1-0 1-1 2-2 4-1 3-2 1-3 0-3 3-1 0-0 0-1 0-0 1-1 2-0 0-2 6-1 2-3</t>
+  </si>
+  <si>
+    <t>Ilves,0-2 0-3 1-1 3-2 2-0 3-1 1-0 2-1 2-1 1-1 1-0 0-1 1-0 1-0 4-1 2-0 1-0 1-0 1-0 0-1 2-0 0-0 2-1 2-3 4-2 0-2 0-3</t>
+  </si>
+  <si>
+    <t>Inter Turku,1-0 2-1 2-1 1-2 2-1 1-4 3-0 1-0 2-0 2-1 1-1 0-1 0-2 2-2 1-0 2-0 2-0 1-3 1-3 2-2 4-0 0-1 2-0 2-3 2-1 0-2 2-5</t>
+  </si>
+  <si>
+    <t>KTP,1-1 1-3 0-3 2-1 2-0 0-2 1-3 2-0 1-1 1-1 1-3 0-0 2-2 3-0 0-1 4-0 1-3 3-1 0-1 1-2 1-2 4-2 2-1 2-0 5-1 2-4 2-1</t>
+  </si>
+  <si>
+    <t>KuPS,1-0 0-0 2-4 2-0 3-2 1-2 0-1 1-0 2-1 0-2 2-0 0-1 1-0 2-2 4-0 1-5 1-1 0-1 3-0 1-2 0-1 0-0 2-1 2-3 0-0 2-2 1-1</t>
+  </si>
+  <si>
+    <t>Lahti,2-1 2-4 2-0 1-0 0-3 3-1 1-1 0-0 1-1 2-1 0-1 1-1 1-1 3-0 2-2 0-2 0-1 1-1 1-0 0-0 1-2 4-1 2-1 1-1 0-0 0-3 2-3</t>
+  </si>
+  <si>
+    <t>Mariehamn,0-2 3-1 2-0 0-3 0-3 3-0 0-1 0-1 3-0 0-0 1-3 1-1 0-2 1-0 1-0 1-3 1-0 0-1 1-2 0-3 2-0 4-2 1-1 1-2 5-1 0-3 2-0</t>
   </si>
   <si>
     <t>Rovaniemi,2-1 2-0</t>
   </si>
   <si>
-    <t>SJK,4-1 2-3 2-2 4-2 2-2 2-5</t>
-  </si>
-  <si>
-    <t>AC Oulu,-1 0 -5 1 -1 2,(-4)</t>
-  </si>
-  <si>
-    <t>Haka,2 0 0 2 2 2,(8)</t>
-  </si>
-  <si>
-    <t>HIFK,-2 -2 0 0 -1 -3,(-8)</t>
-  </si>
-  <si>
-    <t>HJK,-1 -1 1 1 1 0,(1)</t>
-  </si>
-  <si>
-    <t>Honka,0 0 -2 -2 5 1,(2)</t>
-  </si>
-  <si>
-    <t>Ilves,0 -1 -1 -2 -2 3,(-3)</t>
-  </si>
-  <si>
-    <t>Inter Turku,1 2 -1 -1 2 -3,(0)</t>
-  </si>
-  <si>
-    <t>KTP,-2 -1 2 -4 -2 -1,(-8)</t>
-  </si>
-  <si>
-    <t>KuPS,0 1 1 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Lahti,-3 1 0 0 3 -1,(0)</t>
-  </si>
-  <si>
-    <t>Mariehamn,2 0 1 4 -3 -2,(2)</t>
+    <t>SJK,1-1 1-1 0-2 0-2 0-1 0-1 1-0 2-0 0-1 3-0 2-1 0-1 3-2 0-0 3-2 4-0 1-0 3-0 0-1 2-2 4-0 4-1 2-3 2-2 4-2 2-2 2-5</t>
+  </si>
+  <si>
+    <t>AC Oulu,-2 -2 -2 -1 -2 -2 2 -2 -2 0 -1 1 -1 -1 1 2 1 0 -2 0 -4 -1 0 -1 0 -5 1 -1 2,(-22)</t>
+  </si>
+  <si>
+    <t>Haka,-2 -1 -3 3 1 -1 0 -1 0 -1 -1 0 -2 1 2 -1 -4 -1 -1 4 1 2 0 0 2 2 2,(1)</t>
+  </si>
+  <si>
+    <t>HIFK,2 0 0 1 -3 2 1 0 -1 0 -1 1 0 -4 3 1 2 -1 -3 2 0 -2 -2 0 0 -1 -3,(-6)</t>
+  </si>
+  <si>
+    <t>HJK,2 0 3 2 2 2 1 1 1 2 1 -1 2 0 1 1 1 0 2 0 -2 -1 -1 1 1 1 0,(22)</t>
+  </si>
+  <si>
+    <t>Honka,-2 -2 2 -1 -1 -1 2 -1 -1 1 0 1 0 0 3 -1 2 -3 2 0 -1 0 0 -2 -2 5 1,(1)</t>
+  </si>
+  <si>
+    <t>Ilves,2 -3 0 1 2 -2 -1 -1 1 0 1 -1 -1 1 -3 -2 -1 1 1 1 2 0 -1 -1 -2 -2 3,(-5)</t>
+  </si>
+  <si>
+    <t>Inter Turku,1 -1 1 1 1 3 3 -1 2 -1 0 -1 2 0 -1 -2 2 2 -2 0 4 1 2 -1 -1 2 -3,(13)</t>
+  </si>
+  <si>
+    <t>KTP,0 -2 3 -1 -2 -2 -2 -2 0 0 -2 0 0 -3 -1 -4 -2 -2 -1 -1 -1 -2 -1 2 -4 -2 -1,(-33)</t>
+  </si>
+  <si>
+    <t>KuPS,-1 0 2 2 -1 -1 1 1 1 2 2 1 1 0 4 4 0 1 3 1 1 0 1 1 0 0 0,(26)</t>
+  </si>
+  <si>
+    <t>Lahti,1 -2 -2 1 3 2 0 0 0 1 1 0 0 3 0 -2 -1 0 -1 0 1 -3 1 0 0 3 -1,(5)</t>
+  </si>
+  <si>
+    <t>Mariehamn,2 2 -2 -3 -3 -3 -1 -1 -3 0 2 0 -2 -1 -1 -2 1 -1 1 3 -2 2 0 1 4 -3 -2,(-12)</t>
   </si>
   <si>
     <t>Rovaniemi,1 -2,(-1)</t>
   </si>
   <si>
-    <t>SJK,3 1 0 2 0 3,(9)</t>
-  </si>
-  <si>
-    <t>AC Oulu,Mariehamn(10) Lahti(5) Honka(9) KTP(12) Rovaniemi(13) Rovaniemi(13)</t>
-  </si>
-  <si>
-    <t>Haka,HIFK(8) AC Oulu(11) Lahti(5) Honka(9) KTP(12) Mariehamn(10)</t>
-  </si>
-  <si>
-    <t>HIFK,Haka(7) Inter Turku(4) SJK(3) KuPS(2) HJK(1) Ilves(6)</t>
-  </si>
-  <si>
-    <t>HJK,Inter Turku(4) SJK(3) Ilves(6) Inter Turku(4) HIFK(8) KuPS(2)</t>
-  </si>
-  <si>
-    <t>Honka,Ilves(6) Mariehamn(10) KTP(12) Haka(7) AC Oulu(11) Lahti(5)</t>
-  </si>
-  <si>
-    <t>Ilves,Honka(9) KuPS(2) HJK(1) SJK(3) Inter Turku(4) HIFK(8)</t>
-  </si>
-  <si>
-    <t>Inter Turku,HJK(1) HIFK(8) KuPS(2) HJK(1) Ilves(6) SJK(3)</t>
-  </si>
-  <si>
-    <t>KTP,Mariehamn(10) Lahti(5) Honka(9) Mariehamn(10) Haka(7) AC Oulu(11)</t>
-  </si>
-  <si>
-    <t>KuPS,HIFK(8) Ilves(6) Inter Turku(4) HIFK(8) SJK(3) HJK(1)</t>
-  </si>
-  <si>
-    <t>Lahti,SJK(3) KTP(12) Haka(7) AC Oulu(11) Mariehamn(10) Honka(9)</t>
-  </si>
-  <si>
-    <t>Mariehamn,KTP(12) Honka(9) AC Oulu(11) KTP(12) Lahti(5) Haka(7)</t>
+    <t>SJK,0 0 2 -2 1 -1 1 -2 1 3 -1 1 1 0 1 4 -1 -3 1 0 -4 3 1 0 2 0 3,(11)</t>
+  </si>
+  <si>
+    <t>AC Oulu,Ilves(6) Mariehamn(10) SJK(3) HIFK(8) HJK(1) Honka(9) KTP(12) KuPS(2) KuPS(2) KTP(12) Honka(9) HJK(1) SJK(3) Ilves(6) Mariehamn(10) Inter Turku(4) Haka(7) Lahti(5) HIFK(8) Lahti(5) Inter Turku(4) Haka(7) Haka(7) Mariehamn(10) Lahti(5) Honka(9) KTP(12) Rovaniemi(13) Rovaniemi(13)</t>
+  </si>
+  <si>
+    <t>Haka,HIFK(8) Inter Turku(4) KTP(12) Mariehamn(10) KuPS(2) HJK(1) Lahti(5) Honka(9) Honka(9) Ilves(6) KuPS(2) KTP(12) HJK(1) Inter Turku(4) Lahti(5) AC Oulu(11) SJK(3) Mariehamn(10) Ilves(6) SJK(3) AC Oulu(11) HIFK(8) AC Oulu(11) Lahti(5) Honka(9) KTP(12) Mariehamn(10)</t>
+  </si>
+  <si>
+    <t>HIFK,Haka(7) SJK(3) Ilves(6) AC Oulu(11) Inter Turku(4) KTP(12) Honka(9) Lahti(5) HJK(1) Mariehamn(10) Lahti(5) Inter Turku(4) KTP(12) KuPS(2) Honka(9) SJK(3) AC Oulu(11) Ilves(6) Mariehamn(10) HJK(1) KuPS(2) Haka(7) Inter Turku(4) SJK(3) KuPS(2) HJK(1) Ilves(6)</t>
+  </si>
+  <si>
+    <t>HJK,Honka(9) KuPS(2) Ilves(6) Lahti(5) SJK(3) AC Oulu(11) Haka(7) Mariehamn(10) Ilves(6) KTP(12) HIFK(8) AC Oulu(11) Haka(7) SJK(3) KTP(12) Mariehamn(10) Lahti(5) KuPS(2) Inter Turku(4) Honka(9) HIFK(8) Inter Turku(4) SJK(3) Ilves(6) Inter Turku(4) HIFK(8) KuPS(2)</t>
+  </si>
+  <si>
+    <t>Honka,HJK(1) Mariehamn(10) KTP(12) Inter Turku(4) Lahti(5) SJK(3) AC Oulu(11) HIFK(8) KuPS(2) Haka(7) Haka(7) AC Oulu(11) Lahti(5) Inter Turku(4) Ilves(6) SJK(3) Mariehamn(10) HIFK(8) KTP(12) HJK(1) KuPS(2) Ilves(6) Mariehamn(10) KTP(12) Haka(7) AC Oulu(11) Lahti(5)</t>
+  </si>
+  <si>
+    <t>Ilves,AC Oulu(11) HJK(1) HIFK(8) KuPS(2) KTP(12) Lahti(5) SJK(3) HJK(1) Inter Turku(4) KTP(12) Haka(7) SJK(3) KuPS(2) AC Oulu(11) Honka(9) Inter Turku(4) Mariehamn(10) Lahti(5) HIFK(8) Haka(7) Mariehamn(10) Honka(9) KuPS(2) HJK(1) SJK(3) Inter Turku(4) HIFK(8)</t>
+  </si>
+  <si>
+    <t>Inter Turku,KuPS(2) Lahti(5) Haka(7) Honka(9) KTP(12) HIFK(8) Mariehamn(10) KuPS(2) SJK(3) Ilves(6) Lahti(5) HIFK(8) Mariehamn(10) Honka(9) Haka(7) AC Oulu(11) Ilves(6) KTP(12) HJK(1) SJK(3) AC Oulu(11) HJK(1) HIFK(8) KuPS(2) HJK(1) Ilves(6) SJK(3)</t>
+  </si>
+  <si>
+    <t>KTP,SJK(3) Honka(9) Haka(7) Inter Turku(4) Ilves(6) HIFK(8) AC Oulu(11) HJK(1) Ilves(6) AC Oulu(11) Mariehamn(10) Haka(7) HIFK(8) Lahti(5) HJK(1) KuPS(2) Inter Turku(4) Honka(9) SJK(3) KuPS(2) Lahti(5) Mariehamn(10) Lahti(5) Honka(9) Mariehamn(10) Haka(7) AC Oulu(11)</t>
+  </si>
+  <si>
+    <t>KuPS,Inter Turku(4) HJK(1) Lahti(5) Mariehamn(10) Ilves(6) Haka(7) SJK(3) Inter Turku(4) Honka(9) AC Oulu(11) AC Oulu(11) Haka(7) Ilves(6) Lahti(5) KTP(12) HIFK(8) HJK(1) Mariehamn(10) SJK(3) KTP(12) Honka(9) HIFK(8) Ilves(6) Inter Turku(4) HIFK(8) SJK(3) HJK(1)</t>
+  </si>
+  <si>
+    <t>Lahti,Inter Turku(4) KuPS(2) HJK(1) Honka(9) Mariehamn(10) Ilves(6) Haka(7) HIFK(8) Inter Turku(4) SJK(3) HIFK(8) Mariehamn(10) Honka(9) KTP(12) KuPS(2) Haka(7) HJK(1) AC Oulu(11) Ilves(6) AC Oulu(11) KTP(12) SJK(3) KTP(12) Haka(7) AC Oulu(11) Mariehamn(10) Honka(9)</t>
+  </si>
+  <si>
+    <t>Mariehamn,Honka(9) AC Oulu(11) KuPS(2) Haka(7) Lahti(5) Inter Turku(4) HJK(1) SJK(3) SJK(3) HIFK(8) KTP(12) Lahti(5) Inter Turku(4) AC Oulu(11) HJK(1) Honka(9) Ilves(6) KuPS(2) Haka(7) HIFK(8) Ilves(6) KTP(12) Honka(9) AC Oulu(11) KTP(12) Lahti(5) Haka(7)</t>
   </si>
   <si>
     <t>Rovaniemi,AC Oulu(11) AC Oulu(11)</t>
   </si>
   <si>
-    <t>SJK,Lahti(5) HJK(1) HIFK(8) Ilves(6) KuPS(2) Inter Turku(4)</t>
+    <t>SJK,KTP(12) HIFK(8) AC Oulu(11) HJK(1) Honka(9) KuPS(2) Ilves(6) Inter Turku(4) Mariehamn(10) Mariehamn(10) Lahti(5) Ilves(6) AC Oulu(11) HJK(1) Honka(9) Haka(7) HIFK(8) KuPS(2) KTP(12) Inter Turku(4) Haka(7) Lahti(5) HJK(1) HIFK(8) Ilves(6) KuPS(2) Inter Turku(4)</t>
   </si>
   <si>
     <t>fin_division</t>
